--- a/Saved_file/EM003/2026_10/work_logs_EM003_2026_10.xlsx
+++ b/Saved_file/EM003/2026_10/work_logs_EM003_2026_10.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-10-20 15:15:15</t>
+          <t>2026-10-14 18:42:21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.942</t>
+          <t>Face verification failed - Similarity: 0.260</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20261020_000</t>
+          <t>SESS_20261014_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -511,34 +511,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15:15:15</t>
+          <t>18:42:21</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-10-09 12:57:34</t>
+          <t>2026-10-11 15:30:06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.869</t>
+          <t>Face verification failed - Similarity: 0.278</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20261009_001</t>
+          <t>SESS_20261011_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -561,34 +561,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>12:57:34</t>
+          <t>15:30:06</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-10-15 16:22:20</t>
+          <t>2026-10-14 14:32:14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.807</t>
+          <t>Face verification failed - Similarity: 0.208</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20261015_002</t>
+          <t>SESS_20261014_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -611,34 +611,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-10-15</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16:22:20</t>
+          <t>14:32:14</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-10-15 14:58:35</t>
+          <t>2026-10-27 14:39:11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.240</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SESS_20261015_003</t>
+          <t>SESS_20261027_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -661,34 +661,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-10-15</t>
+          <t>2026-10-27</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>14:58:35</t>
+          <t>14:39:11</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-10-27 19:27:55</t>
+          <t>2026-10-22 17:40:01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.288</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20261027_004</t>
+          <t>SESS_20261022_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -711,34 +711,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-10-27</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>19:27:55</t>
+          <t>17:40:01</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-10-24 08:55:10</t>
+          <t>2026-10-24 11:37:06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.434</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -766,29 +766,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>08:55:10</t>
+          <t>11:37:06</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-10-11 18:44:24</t>
+          <t>2026-10-03 15:06:37</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.876</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SESS_20261011_006</t>
+          <t>SESS_20261003_006</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -811,34 +811,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-10-11</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>18:44:24</t>
+          <t>15:06:37</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-10-11 11:58:55</t>
+          <t>2026-10-04 09:47:11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.949</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SESS_20261011_007</t>
+          <t>SESS_20261004_007</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -861,34 +861,34 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-10-11</t>
+          <t>2026-10-04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11:58:55</t>
+          <t>09:47:11</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-10-03 16:08:58</t>
+          <t>2026-10-26 20:47:12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.804</t>
+          <t>Face verification failed - Similarity: 0.336</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SESS_20261003_008</t>
+          <t>SESS_20261026_008</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -911,34 +911,34 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-10-03</t>
+          <t>2026-10-26</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16:08:58</t>
+          <t>20:47:12</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-10-21 10:47:16</t>
+          <t>2026-10-21 18:10:39</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.365</t>
+          <t>Mouse anomaly detected - Score: 0.854</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -966,29 +966,29 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10:47:16</t>
+          <t>18:10:39</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-10-27 14:43:59</t>
+          <t>2026-10-20 17:50:43</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.475</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SESS_20261027_010</t>
+          <t>SESS_20261020_010</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1011,34 +1011,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-10-27</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>14:43:59</t>
+          <t>17:50:43</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-10-16 11:04:46</t>
+          <t>2026-10-22 11:25:39</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.821</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SESS_20261016_011</t>
+          <t>SESS_20261022_011</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1061,34 +1061,34 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11:04:46</t>
+          <t>11:25:39</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-10-22 17:39:03</t>
+          <t>2026-10-17 20:09:09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.412</t>
+          <t>Face verification failed - Similarity: 0.273</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SESS_20261022_012</t>
+          <t>SESS_20261017_012</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-17</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>17:39:03</t>
+          <t>20:09:09</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1128,17 +1128,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-10-10 10:52:53</t>
+          <t>2026-10-03 17:53:24</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.425</t>
+          <t>Face verification failed - Similarity: 0.220</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SESS_20261010_013</t>
+          <t>SESS_20261003_013</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1161,267 +1161,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-10-10</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10:52:53</t>
+          <t>17:53:24</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2026-10-26 09:47:04</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>RAPID_PAUSE</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Browser suspicious activity detected</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SESS_20261026_014</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2026-10-26</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>09:47:04</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2026-10-04 20:35:12</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>BEHAVIOR_ANOMALY</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mouse anomaly detected - Score: 0.899</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>SESS_20261004_015</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2026-10-04</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>20:35:12</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2026-10-27 17:22:57</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>FACE_VERIFICATION</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.233</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>SESS_20261027_016</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2026-10-27</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>17:22:57</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2026-10-26 10:29:12</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>LIVENESS_CHECK</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.484</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SESS_20261026_017</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2026-10-26</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>10:29:12</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2026-10-09 13:27:55</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>SESSION_START</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Browser suspicious activity detected</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>SESS_20261009_018</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2026-10-09</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>13:27:55</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Browser</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1329,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-10-01 11:37:57</t>
+          <t>2026-10-01 17:11:09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1589,7 +1339,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.269</t>
+          <t>Mouse session - Score: 0.404</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1617,7 +1367,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11:37:57</t>
+          <t>17:11:09</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1626,58 +1376,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>28529</v>
+        <v>18998</v>
       </c>
       <c r="L2" t="n">
-        <v>28529</v>
+        <v>18998</v>
       </c>
       <c r="M2" t="n">
-        <v>29848.44</v>
+        <v>38559.41</v>
       </c>
       <c r="N2" t="n">
-        <v>17909.06</v>
+        <v>23135.65</v>
       </c>
       <c r="O2" t="n">
-        <v>11939.38</v>
+        <v>15423.77</v>
       </c>
       <c r="P2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="R2" t="n">
-        <v>82.33</v>
+        <v>47.1</v>
       </c>
       <c r="S2" t="n">
-        <v>362.57</v>
+        <v>818.62</v>
       </c>
       <c r="T2" t="n">
-        <v>45.98</v>
+        <v>45.03</v>
       </c>
       <c r="U2" t="n">
-        <v>217.54</v>
+        <v>491.17</v>
       </c>
       <c r="V2" t="n">
-        <v>145.03</v>
+        <v>327.45</v>
       </c>
       <c r="W2" t="n">
-        <v>28.38</v>
+        <v>8.75</v>
       </c>
       <c r="X2" t="n">
-        <v>9.630000000000001</v>
+        <v>22.43</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.33</v>
+        <v>47.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.269</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-10-01 15:35:28</t>
+          <t>2026-10-01 11:36:39</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1687,7 +1437,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.941</t>
+          <t>Mouse session - Score: 0.340</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1702,11 +1452,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1715,7 +1465,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15:35:28</t>
+          <t>11:36:39</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1724,58 +1474,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>8923</v>
+        <v>26844</v>
       </c>
       <c r="L3" t="n">
-        <v>8923</v>
+        <v>26844</v>
       </c>
       <c r="M3" t="n">
-        <v>20701.6</v>
+        <v>6321.67</v>
       </c>
       <c r="N3" t="n">
-        <v>12420.96</v>
+        <v>3793</v>
       </c>
       <c r="O3" t="n">
-        <v>8280.639999999999</v>
+        <v>2528.67</v>
       </c>
       <c r="P3" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>75.77</v>
+        <v>113.1</v>
       </c>
       <c r="S3" t="n">
-        <v>273.22</v>
+        <v>55.89</v>
       </c>
       <c r="T3" t="n">
-        <v>12.22</v>
+        <v>23.23</v>
       </c>
       <c r="U3" t="n">
-        <v>163.93</v>
+        <v>33.54</v>
       </c>
       <c r="V3" t="n">
-        <v>109.29</v>
+        <v>22.36</v>
       </c>
       <c r="W3" t="n">
-        <v>16.9</v>
+        <v>20.72</v>
       </c>
       <c r="X3" t="n">
-        <v>14.17</v>
+        <v>18.48</v>
       </c>
       <c r="Y3" t="n">
-        <v>75.77</v>
+        <v>113.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-10-01 10:02:53</t>
+          <t>2026-10-01 13:26:47</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1785,7 +1535,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.369</t>
+          <t>Mouse session - Score: 0.312</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1813,7 +1563,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10:02:53</t>
+          <t>13:26:47</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1822,58 +1572,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>22444</v>
+        <v>29821</v>
       </c>
       <c r="L4" t="n">
-        <v>22444</v>
+        <v>29821</v>
       </c>
       <c r="M4" t="n">
-        <v>8307.65</v>
+        <v>9642.969999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>4984.59</v>
+        <v>5785.78</v>
       </c>
       <c r="O4" t="n">
-        <v>3323.06</v>
+        <v>3857.19</v>
       </c>
       <c r="P4" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>50.57</v>
+        <v>87.78</v>
       </c>
       <c r="S4" t="n">
-        <v>164.27</v>
+        <v>109.86</v>
       </c>
       <c r="T4" t="n">
-        <v>19.93</v>
+        <v>30.54</v>
       </c>
       <c r="U4" t="n">
-        <v>98.56</v>
+        <v>65.92</v>
       </c>
       <c r="V4" t="n">
-        <v>65.70999999999999</v>
+        <v>43.94</v>
       </c>
       <c r="W4" t="n">
-        <v>27.42</v>
+        <v>9.98</v>
       </c>
       <c r="X4" t="n">
-        <v>29.83</v>
+        <v>13.29</v>
       </c>
       <c r="Y4" t="n">
-        <v>50.57</v>
+        <v>87.78</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.369</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-10-01 16:31:32</t>
+          <t>2026-10-01 13:04:37</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1883,7 +1633,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.833</t>
+          <t>Mouse session - Score: 0.387</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1898,11 +1648,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1911,7 +1661,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16:31:32</t>
+          <t>13:04:37</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1920,58 +1670,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>11326</v>
+        <v>25204</v>
       </c>
       <c r="L5" t="n">
-        <v>11326</v>
+        <v>25204</v>
       </c>
       <c r="M5" t="n">
-        <v>12946.07</v>
+        <v>20733.33</v>
       </c>
       <c r="N5" t="n">
-        <v>7767.64</v>
+        <v>12440</v>
       </c>
       <c r="O5" t="n">
-        <v>5178.43</v>
+        <v>8293.33</v>
       </c>
       <c r="P5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q5" t="n">
         <v>13</v>
       </c>
       <c r="R5" t="n">
-        <v>30.25</v>
+        <v>91.89</v>
       </c>
       <c r="S5" t="n">
-        <v>427.97</v>
+        <v>225.64</v>
       </c>
       <c r="T5" t="n">
-        <v>22.51</v>
+        <v>29.07</v>
       </c>
       <c r="U5" t="n">
-        <v>256.78</v>
+        <v>135.38</v>
       </c>
       <c r="V5" t="n">
-        <v>171.19</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>8.81</v>
+        <v>8.09</v>
       </c>
       <c r="X5" t="n">
-        <v>3.46</v>
+        <v>7.36</v>
       </c>
       <c r="Y5" t="n">
-        <v>30.25</v>
+        <v>91.89</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.833</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-10-02 17:51:50</t>
+          <t>2026-10-02 13:17:40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1981,7 +1731,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.403</t>
+          <t>Mouse session - Score: 0.401</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2009,7 +1759,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>17:51:50</t>
+          <t>13:17:40</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2018,58 +1768,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>27062</v>
+        <v>14325</v>
       </c>
       <c r="L6" t="n">
-        <v>27062</v>
+        <v>14325</v>
       </c>
       <c r="M6" t="n">
-        <v>29803.09</v>
+        <v>13434.39</v>
       </c>
       <c r="N6" t="n">
-        <v>17881.85</v>
+        <v>8060.63</v>
       </c>
       <c r="O6" t="n">
-        <v>11921.24</v>
+        <v>5373.75</v>
       </c>
       <c r="P6" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R6" t="n">
-        <v>69.3</v>
+        <v>94.58</v>
       </c>
       <c r="S6" t="n">
-        <v>430.07</v>
+        <v>142.04</v>
       </c>
       <c r="T6" t="n">
-        <v>7.67</v>
+        <v>34.98</v>
       </c>
       <c r="U6" t="n">
-        <v>258.04</v>
+        <v>85.22</v>
       </c>
       <c r="V6" t="n">
-        <v>172.03</v>
+        <v>56.81</v>
       </c>
       <c r="W6" t="n">
-        <v>10.84</v>
+        <v>15.81</v>
       </c>
       <c r="X6" t="n">
-        <v>24.87</v>
+        <v>8.98</v>
       </c>
       <c r="Y6" t="n">
-        <v>69.3</v>
+        <v>94.58</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.403</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-10-02 12:51:31</t>
+          <t>2026-10-02 16:21:57</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2079,7 +1829,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.252</t>
+          <t>Mouse session - Score: 0.317</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2107,7 +1857,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12:51:31</t>
+          <t>16:21:57</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2116,58 +1866,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>25462</v>
+        <v>6570</v>
       </c>
       <c r="L7" t="n">
-        <v>25462</v>
+        <v>6570</v>
       </c>
       <c r="M7" t="n">
-        <v>9033.139999999999</v>
+        <v>24501.16</v>
       </c>
       <c r="N7" t="n">
-        <v>5419.88</v>
+        <v>14700.69</v>
       </c>
       <c r="O7" t="n">
-        <v>3613.26</v>
+        <v>9800.459999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="R7" t="n">
-        <v>91.13</v>
+        <v>170.71</v>
       </c>
       <c r="S7" t="n">
-        <v>99.13</v>
+        <v>143.52</v>
       </c>
       <c r="T7" t="n">
-        <v>39.34</v>
+        <v>44.28</v>
       </c>
       <c r="U7" t="n">
-        <v>59.48</v>
+        <v>86.11</v>
       </c>
       <c r="V7" t="n">
-        <v>39.65</v>
+        <v>57.41</v>
       </c>
       <c r="W7" t="n">
-        <v>20.53</v>
+        <v>16.75</v>
       </c>
       <c r="X7" t="n">
-        <v>14.87</v>
+        <v>11.21</v>
       </c>
       <c r="Y7" t="n">
-        <v>91.13</v>
+        <v>170.71</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.252</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-10-02 14:21:01</t>
+          <t>2026-10-02 13:59:15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2177,7 +1927,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.305</t>
+          <t>Mouse session - Score: 0.406</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2205,7 +1955,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>14:21:01</t>
+          <t>13:59:15</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2214,58 +1964,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>10711</v>
+        <v>16900</v>
       </c>
       <c r="L8" t="n">
-        <v>10711</v>
+        <v>16900</v>
       </c>
       <c r="M8" t="n">
-        <v>19366.25</v>
+        <v>20212.51</v>
       </c>
       <c r="N8" t="n">
-        <v>11619.75</v>
+        <v>12127.5</v>
       </c>
       <c r="O8" t="n">
-        <v>7746.5</v>
+        <v>8085</v>
       </c>
       <c r="P8" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
-        <v>10</v>
-      </c>
       <c r="R8" t="n">
-        <v>77.2</v>
+        <v>137.03</v>
       </c>
       <c r="S8" t="n">
-        <v>250.87</v>
+        <v>147.51</v>
       </c>
       <c r="T8" t="n">
-        <v>17.78</v>
+        <v>28.15</v>
       </c>
       <c r="U8" t="n">
-        <v>150.52</v>
+        <v>88.5</v>
       </c>
       <c r="V8" t="n">
-        <v>100.35</v>
+        <v>59</v>
       </c>
       <c r="W8" t="n">
-        <v>12.5</v>
+        <v>11.29</v>
       </c>
       <c r="X8" t="n">
-        <v>28.12</v>
+        <v>19.36</v>
       </c>
       <c r="Y8" t="n">
-        <v>77.2</v>
+        <v>137.03</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.305</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-10-02 14:10:55</t>
+          <t>2026-10-02 15:11:12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2275,7 +2025,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.326</t>
+          <t>Mouse session - Score: 0.287</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2303,7 +2053,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14:10:55</t>
+          <t>15:11:12</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2312,58 +2062,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>20886</v>
+        <v>19748</v>
       </c>
       <c r="L9" t="n">
-        <v>20886</v>
+        <v>19748</v>
       </c>
       <c r="M9" t="n">
-        <v>7430.12</v>
+        <v>13852.38</v>
       </c>
       <c r="N9" t="n">
-        <v>4458.07</v>
+        <v>8311.43</v>
       </c>
       <c r="O9" t="n">
-        <v>2972.05</v>
+        <v>5540.95</v>
       </c>
       <c r="P9" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Q9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R9" t="n">
-        <v>72.79000000000001</v>
+        <v>36.28</v>
       </c>
       <c r="S9" t="n">
-        <v>102.07</v>
+        <v>381.82</v>
       </c>
       <c r="T9" t="n">
-        <v>43.39</v>
+        <v>43.12</v>
       </c>
       <c r="U9" t="n">
-        <v>61.24</v>
+        <v>229.09</v>
       </c>
       <c r="V9" t="n">
-        <v>40.83</v>
+        <v>152.73</v>
       </c>
       <c r="W9" t="n">
-        <v>4.52</v>
+        <v>28.17</v>
       </c>
       <c r="X9" t="n">
-        <v>22.8</v>
+        <v>22.86</v>
       </c>
       <c r="Y9" t="n">
-        <v>72.79000000000001</v>
+        <v>36.28</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.326</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-10-05 09:58:18</t>
+          <t>2026-10-03 15:12:57</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2373,7 +2123,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.902</t>
+          <t>Mouse session - Score: 0.374</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2383,25 +2133,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MOUSE_20261005_000</t>
+          <t>MOUSE_20261003_000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-10-05</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>09:58:18</t>
+          <t>15:12:57</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2410,58 +2160,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>18975</v>
+        <v>18404</v>
       </c>
       <c r="L10" t="n">
-        <v>18975</v>
+        <v>18404</v>
       </c>
       <c r="M10" t="n">
-        <v>20833.89</v>
+        <v>39249.83</v>
       </c>
       <c r="N10" t="n">
-        <v>12500.33</v>
+        <v>23549.9</v>
       </c>
       <c r="O10" t="n">
-        <v>8333.559999999999</v>
+        <v>15699.93</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="R10" t="n">
-        <v>87.93000000000001</v>
+        <v>153.58</v>
       </c>
       <c r="S10" t="n">
-        <v>236.94</v>
+        <v>255.56</v>
       </c>
       <c r="T10" t="n">
-        <v>18.46</v>
+        <v>37.38</v>
       </c>
       <c r="U10" t="n">
-        <v>142.16</v>
+        <v>153.34</v>
       </c>
       <c r="V10" t="n">
-        <v>94.78</v>
+        <v>102.23</v>
       </c>
       <c r="W10" t="n">
-        <v>24.15</v>
+        <v>26.37</v>
       </c>
       <c r="X10" t="n">
-        <v>12.15</v>
+        <v>8.82</v>
       </c>
       <c r="Y10" t="n">
-        <v>87.93000000000001</v>
+        <v>153.58</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.902</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-10-05 10:47:09</t>
+          <t>2026-10-03 12:02:36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2471,7 +2221,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.863</t>
+          <t>Mouse session - Score: 0.352</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2481,25 +2231,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MOUSE_20261005_001</t>
+          <t>MOUSE_20261003_001</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-10-05</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10:47:09</t>
+          <t>12:02:36</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2508,58 +2258,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>26853</v>
+        <v>19039</v>
       </c>
       <c r="L11" t="n">
-        <v>26853</v>
+        <v>19039</v>
       </c>
       <c r="M11" t="n">
-        <v>15021.01</v>
+        <v>18307.01</v>
       </c>
       <c r="N11" t="n">
-        <v>9012.610000000001</v>
+        <v>10984.21</v>
       </c>
       <c r="O11" t="n">
-        <v>6008.4</v>
+        <v>7322.8</v>
       </c>
       <c r="P11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>154.54</v>
+        <v>33.44</v>
       </c>
       <c r="S11" t="n">
-        <v>97.2</v>
+        <v>547.38</v>
       </c>
       <c r="T11" t="n">
-        <v>28.58</v>
+        <v>6.99</v>
       </c>
       <c r="U11" t="n">
-        <v>58.32</v>
+        <v>328.43</v>
       </c>
       <c r="V11" t="n">
-        <v>38.88</v>
+        <v>218.95</v>
       </c>
       <c r="W11" t="n">
-        <v>15.44</v>
+        <v>23.31</v>
       </c>
       <c r="X11" t="n">
-        <v>14.44</v>
+        <v>16.49</v>
       </c>
       <c r="Y11" t="n">
-        <v>154.54</v>
+        <v>33.44</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.863</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-10-05 16:20:30</t>
+          <t>2026-10-03 10:15:36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2569,7 +2319,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.336</t>
+          <t>Mouse session - Score: 0.402</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2579,7 +2329,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MOUSE_20261005_002</t>
+          <t>MOUSE_20261003_002</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2592,12 +2342,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-10-05</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16:20:30</t>
+          <t>10:15:36</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2606,58 +2356,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>12321</v>
+        <v>8245</v>
       </c>
       <c r="L12" t="n">
-        <v>12321</v>
+        <v>8245</v>
       </c>
       <c r="M12" t="n">
-        <v>18974.36</v>
+        <v>26517.33</v>
       </c>
       <c r="N12" t="n">
-        <v>11384.62</v>
+        <v>15910.4</v>
       </c>
       <c r="O12" t="n">
-        <v>7589.75</v>
+        <v>10606.93</v>
       </c>
       <c r="P12" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q12" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R12" t="n">
-        <v>84.13</v>
+        <v>104.73</v>
       </c>
       <c r="S12" t="n">
-        <v>225.55</v>
+        <v>253.19</v>
       </c>
       <c r="T12" t="n">
-        <v>49.5</v>
+        <v>49.19</v>
       </c>
       <c r="U12" t="n">
-        <v>135.33</v>
+        <v>151.91</v>
       </c>
       <c r="V12" t="n">
-        <v>90.22</v>
+        <v>101.27</v>
       </c>
       <c r="W12" t="n">
-        <v>27.17</v>
+        <v>7.27</v>
       </c>
       <c r="X12" t="n">
-        <v>7.35</v>
+        <v>12.05</v>
       </c>
       <c r="Y12" t="n">
-        <v>84.13</v>
+        <v>104.73</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.336</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-10-05 13:59:24</t>
+          <t>2026-10-03 15:53:15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2667,7 +2417,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.325</t>
+          <t>Mouse session - Score: 0.313</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2677,7 +2427,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MOUSE_20261005_003</t>
+          <t>MOUSE_20261003_003</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2690,12 +2440,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-10-05</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>13:59:24</t>
+          <t>15:53:15</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2704,58 +2454,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>19916</v>
+        <v>17035</v>
       </c>
       <c r="L13" t="n">
-        <v>19916</v>
+        <v>17035</v>
       </c>
       <c r="M13" t="n">
-        <v>28041.29</v>
+        <v>7888.69</v>
       </c>
       <c r="N13" t="n">
-        <v>16824.78</v>
+        <v>4733.21</v>
       </c>
       <c r="O13" t="n">
-        <v>11216.52</v>
+        <v>3155.48</v>
       </c>
       <c r="P13" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>99.2</v>
+        <v>104.75</v>
       </c>
       <c r="S13" t="n">
-        <v>282.68</v>
+        <v>75.31</v>
       </c>
       <c r="T13" t="n">
-        <v>13.64</v>
+        <v>27.81</v>
       </c>
       <c r="U13" t="n">
-        <v>169.61</v>
+        <v>45.19</v>
       </c>
       <c r="V13" t="n">
-        <v>113.07</v>
+        <v>30.12</v>
       </c>
       <c r="W13" t="n">
-        <v>27.74</v>
+        <v>8.94</v>
       </c>
       <c r="X13" t="n">
-        <v>25.69</v>
+        <v>7.85</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.2</v>
+        <v>104.75</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.325</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-10-06 17:46:14</t>
+          <t>2026-10-05 14:15:06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2765,7 +2515,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.890</t>
+          <t>Mouse session - Score: 0.364</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2775,25 +2525,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MOUSE_20261006_000</t>
+          <t>MOUSE_20261005_000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-10-06</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>17:46:14</t>
+          <t>14:15:06</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2802,58 +2552,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>8661</v>
+        <v>15561</v>
       </c>
       <c r="L14" t="n">
-        <v>8661</v>
+        <v>15561</v>
       </c>
       <c r="M14" t="n">
-        <v>28924.6</v>
+        <v>29697.32</v>
       </c>
       <c r="N14" t="n">
-        <v>17354.76</v>
+        <v>17818.39</v>
       </c>
       <c r="O14" t="n">
-        <v>11569.84</v>
+        <v>11878.93</v>
       </c>
       <c r="P14" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q14" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>136.53</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>211.85</v>
+        <v>389.12</v>
       </c>
       <c r="T14" t="n">
-        <v>30.78</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>127.11</v>
+        <v>233.47</v>
       </c>
       <c r="V14" t="n">
-        <v>84.73999999999999</v>
+        <v>155.65</v>
       </c>
       <c r="W14" t="n">
-        <v>16.92</v>
+        <v>23.74</v>
       </c>
       <c r="X14" t="n">
-        <v>13.94</v>
+        <v>16.34</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.53</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.89</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-10-06 10:16:16</t>
+          <t>2026-10-05 14:35:24</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2863,7 +2613,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.374</t>
+          <t>Mouse session - Score: 0.301</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2873,7 +2623,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MOUSE_20261006_001</t>
+          <t>MOUSE_20261005_001</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2886,12 +2636,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-10-06</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10:16:16</t>
+          <t>14:35:24</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2900,58 +2650,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>20364</v>
+        <v>27131</v>
       </c>
       <c r="L15" t="n">
-        <v>20364</v>
+        <v>27131</v>
       </c>
       <c r="M15" t="n">
-        <v>16873.75</v>
+        <v>33779.69</v>
       </c>
       <c r="N15" t="n">
-        <v>10124.25</v>
+        <v>20267.82</v>
       </c>
       <c r="O15" t="n">
-        <v>6749.5</v>
+        <v>13511.88</v>
       </c>
       <c r="P15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R15" t="n">
-        <v>98.3</v>
+        <v>31.34</v>
       </c>
       <c r="S15" t="n">
-        <v>171.66</v>
+        <v>1077.85</v>
       </c>
       <c r="T15" t="n">
-        <v>23.21</v>
+        <v>21.31</v>
       </c>
       <c r="U15" t="n">
-        <v>103</v>
+        <v>646.71</v>
       </c>
       <c r="V15" t="n">
-        <v>68.67</v>
+        <v>431.14</v>
       </c>
       <c r="W15" t="n">
-        <v>22.93</v>
+        <v>16.83</v>
       </c>
       <c r="X15" t="n">
-        <v>15.43</v>
+        <v>13.84</v>
       </c>
       <c r="Y15" t="n">
-        <v>98.3</v>
+        <v>31.34</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.374</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-10-06 15:48:25</t>
+          <t>2026-10-05 16:54:03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2961,7 +2711,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.436</t>
+          <t>Mouse session - Score: 0.265</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2971,7 +2721,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MOUSE_20261006_002</t>
+          <t>MOUSE_20261005_002</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2984,12 +2734,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-10-06</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15:48:25</t>
+          <t>16:54:03</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2998,58 +2748,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>19008</v>
+        <v>18545</v>
       </c>
       <c r="L16" t="n">
-        <v>19008</v>
+        <v>18545</v>
       </c>
       <c r="M16" t="n">
-        <v>27920.63</v>
+        <v>37950.49</v>
       </c>
       <c r="N16" t="n">
-        <v>16752.38</v>
+        <v>22770.3</v>
       </c>
       <c r="O16" t="n">
-        <v>11168.25</v>
+        <v>15180.2</v>
       </c>
       <c r="P16" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="Q16" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="R16" t="n">
-        <v>126.09</v>
+        <v>165.96</v>
       </c>
       <c r="S16" t="n">
-        <v>221.43</v>
+        <v>228.68</v>
       </c>
       <c r="T16" t="n">
-        <v>35.09</v>
+        <v>23.37</v>
       </c>
       <c r="U16" t="n">
-        <v>132.86</v>
+        <v>137.21</v>
       </c>
       <c r="V16" t="n">
-        <v>88.56999999999999</v>
+        <v>91.47</v>
       </c>
       <c r="W16" t="n">
-        <v>14.82</v>
+        <v>24.9</v>
       </c>
       <c r="X16" t="n">
-        <v>7.41</v>
+        <v>20.66</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.09</v>
+        <v>165.96</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.436</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-10-06 10:53:17</t>
+          <t>2026-10-05 16:09:21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3059,7 +2809,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.882</t>
+          <t>Mouse session - Score: 0.333</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3069,25 +2819,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MOUSE_20261006_003</t>
+          <t>MOUSE_20261005_003</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-10-06</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10:53:17</t>
+          <t>16:09:21</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3096,58 +2846,58 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>16511</v>
+        <v>6962</v>
       </c>
       <c r="L17" t="n">
-        <v>16511</v>
+        <v>6962</v>
       </c>
       <c r="M17" t="n">
-        <v>31200.74</v>
+        <v>13520.99</v>
       </c>
       <c r="N17" t="n">
-        <v>18720.45</v>
+        <v>8112.6</v>
       </c>
       <c r="O17" t="n">
-        <v>12480.3</v>
+        <v>5408.4</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="Q17" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="R17" t="n">
-        <v>175.41</v>
+        <v>92.56</v>
       </c>
       <c r="S17" t="n">
-        <v>177.88</v>
+        <v>146.07</v>
       </c>
       <c r="T17" t="n">
-        <v>34.26</v>
+        <v>16.99</v>
       </c>
       <c r="U17" t="n">
-        <v>106.73</v>
+        <v>87.64</v>
       </c>
       <c r="V17" t="n">
-        <v>71.15000000000001</v>
+        <v>58.43</v>
       </c>
       <c r="W17" t="n">
-        <v>22.24</v>
+        <v>14.45</v>
       </c>
       <c r="X17" t="n">
-        <v>19.74</v>
+        <v>24.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>175.41</v>
+        <v>92.56</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.882</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-10-07 15:17:20</t>
+          <t>2026-10-06 15:55:57</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3157,7 +2907,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.394</t>
+          <t>Mouse session - Score: 0.422</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3167,7 +2917,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MOUSE_20261007_000</t>
+          <t>MOUSE_20261006_000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3180,12 +2930,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>15:17:20</t>
+          <t>15:55:57</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3194,58 +2944,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>24205</v>
+        <v>20557</v>
       </c>
       <c r="L18" t="n">
-        <v>24205</v>
+        <v>20557</v>
       </c>
       <c r="M18" t="n">
-        <v>12431.73</v>
+        <v>14881.61</v>
       </c>
       <c r="N18" t="n">
-        <v>7459.04</v>
+        <v>8928.969999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>4972.69</v>
+        <v>5952.64</v>
       </c>
       <c r="P18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>119.57</v>
+        <v>53.77</v>
       </c>
       <c r="S18" t="n">
-        <v>103.97</v>
+        <v>276.77</v>
       </c>
       <c r="T18" t="n">
-        <v>40.58</v>
+        <v>48.78</v>
       </c>
       <c r="U18" t="n">
-        <v>62.38</v>
+        <v>166.06</v>
       </c>
       <c r="V18" t="n">
-        <v>41.59</v>
+        <v>110.71</v>
       </c>
       <c r="W18" t="n">
-        <v>14.83</v>
+        <v>7.93</v>
       </c>
       <c r="X18" t="n">
-        <v>9.18</v>
+        <v>4.9</v>
       </c>
       <c r="Y18" t="n">
-        <v>119.57</v>
+        <v>53.77</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.394</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-10-07 11:47:22</t>
+          <t>2026-10-06 16:49:12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3255,7 +3005,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.406</t>
+          <t>Mouse session - Score: 0.378</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3265,7 +3015,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MOUSE_20261007_001</t>
+          <t>MOUSE_20261006_001</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3278,12 +3028,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11:47:22</t>
+          <t>16:49:12</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3292,58 +3042,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>23238</v>
+        <v>15803</v>
       </c>
       <c r="L19" t="n">
-        <v>23238</v>
+        <v>15803</v>
       </c>
       <c r="M19" t="n">
-        <v>7021.65</v>
+        <v>38393.99</v>
       </c>
       <c r="N19" t="n">
-        <v>4212.99</v>
+        <v>23036.4</v>
       </c>
       <c r="O19" t="n">
-        <v>2808.66</v>
+        <v>15357.6</v>
       </c>
       <c r="P19" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Q19" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="R19" t="n">
-        <v>159.88</v>
+        <v>83.66</v>
       </c>
       <c r="S19" t="n">
-        <v>43.92</v>
+        <v>458.95</v>
       </c>
       <c r="T19" t="n">
-        <v>10.59</v>
+        <v>37.99</v>
       </c>
       <c r="U19" t="n">
-        <v>26.35</v>
+        <v>275.37</v>
       </c>
       <c r="V19" t="n">
-        <v>17.57</v>
+        <v>183.58</v>
       </c>
       <c r="W19" t="n">
-        <v>10.7</v>
+        <v>25.08</v>
       </c>
       <c r="X19" t="n">
-        <v>15.71</v>
+        <v>28.39</v>
       </c>
       <c r="Y19" t="n">
-        <v>159.88</v>
+        <v>83.66</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.406</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-10-07 12:42:56</t>
+          <t>2026-10-06 12:23:08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3353,7 +3103,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.262</t>
+          <t>Mouse session - Score: 0.387</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3363,7 +3113,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MOUSE_20261007_002</t>
+          <t>MOUSE_20261006_002</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3376,12 +3126,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>12:42:56</t>
+          <t>12:23:08</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3390,58 +3140,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>18164</v>
+        <v>15073</v>
       </c>
       <c r="L20" t="n">
-        <v>18164</v>
+        <v>15073</v>
       </c>
       <c r="M20" t="n">
-        <v>10228.34</v>
+        <v>36690.97</v>
       </c>
       <c r="N20" t="n">
-        <v>6137.01</v>
+        <v>22014.58</v>
       </c>
       <c r="O20" t="n">
-        <v>4091.34</v>
+        <v>14676.39</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="R20" t="n">
-        <v>99.92</v>
+        <v>148.62</v>
       </c>
       <c r="S20" t="n">
-        <v>102.37</v>
+        <v>246.88</v>
       </c>
       <c r="T20" t="n">
-        <v>15.22</v>
+        <v>46.79</v>
       </c>
       <c r="U20" t="n">
-        <v>61.42</v>
+        <v>148.13</v>
       </c>
       <c r="V20" t="n">
-        <v>40.95</v>
+        <v>98.75</v>
       </c>
       <c r="W20" t="n">
-        <v>19.69</v>
+        <v>7.45</v>
       </c>
       <c r="X20" t="n">
-        <v>17.95</v>
+        <v>19.82</v>
       </c>
       <c r="Y20" t="n">
-        <v>99.92</v>
+        <v>148.62</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.262</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-10-07 12:04:58</t>
+          <t>2026-10-06 16:33:41</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3451,7 +3201,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.359</t>
+          <t>Mouse session - Score: 0.349</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3461,7 +3211,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MOUSE_20261007_003</t>
+          <t>MOUSE_20261006_003</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3474,12 +3224,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>12:04:58</t>
+          <t>16:33:41</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3488,58 +3238,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>11935</v>
+        <v>6796</v>
       </c>
       <c r="L21" t="n">
-        <v>11935</v>
+        <v>6796</v>
       </c>
       <c r="M21" t="n">
-        <v>26037.17</v>
+        <v>37145.82</v>
       </c>
       <c r="N21" t="n">
-        <v>15622.3</v>
+        <v>22287.49</v>
       </c>
       <c r="O21" t="n">
-        <v>10414.87</v>
+        <v>14858.33</v>
       </c>
       <c r="P21" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q21" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R21" t="n">
-        <v>31.37</v>
+        <v>45.84</v>
       </c>
       <c r="S21" t="n">
-        <v>830.05</v>
+        <v>810.39</v>
       </c>
       <c r="T21" t="n">
-        <v>27.29</v>
+        <v>12.04</v>
       </c>
       <c r="U21" t="n">
-        <v>498.03</v>
+        <v>486.24</v>
       </c>
       <c r="V21" t="n">
-        <v>332.02</v>
+        <v>324.16</v>
       </c>
       <c r="W21" t="n">
-        <v>3.05</v>
+        <v>22.04</v>
       </c>
       <c r="X21" t="n">
-        <v>5.64</v>
+        <v>14.89</v>
       </c>
       <c r="Y21" t="n">
-        <v>31.37</v>
+        <v>45.84</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.359</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-10-08 17:32:03</t>
+          <t>2026-10-07 17:19:44</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3549,7 +3299,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.363</t>
+          <t>Mouse session - Score: 0.441</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3559,7 +3309,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MOUSE_20261008_000</t>
+          <t>MOUSE_20261007_000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3572,12 +3322,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-10-08</t>
+          <t>2026-10-07</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>17:32:03</t>
+          <t>17:19:44</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3586,58 +3336,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>27862</v>
+        <v>6213</v>
       </c>
       <c r="L22" t="n">
-        <v>27862</v>
+        <v>6213</v>
       </c>
       <c r="M22" t="n">
-        <v>9127.110000000001</v>
+        <v>36474.91</v>
       </c>
       <c r="N22" t="n">
-        <v>5476.27</v>
+        <v>21884.95</v>
       </c>
       <c r="O22" t="n">
-        <v>3650.85</v>
+        <v>14589.96</v>
       </c>
       <c r="P22" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="R22" t="n">
-        <v>160.42</v>
+        <v>107.14</v>
       </c>
       <c r="S22" t="n">
-        <v>56.89</v>
+        <v>340.44</v>
       </c>
       <c r="T22" t="n">
-        <v>16.92</v>
+        <v>14.07</v>
       </c>
       <c r="U22" t="n">
-        <v>34.14</v>
+        <v>204.27</v>
       </c>
       <c r="V22" t="n">
-        <v>22.76</v>
+        <v>136.18</v>
       </c>
       <c r="W22" t="n">
-        <v>9.960000000000001</v>
+        <v>5.45</v>
       </c>
       <c r="X22" t="n">
-        <v>17.55</v>
+        <v>12.15</v>
       </c>
       <c r="Y22" t="n">
-        <v>160.42</v>
+        <v>107.14</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.363</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-10-08 17:32:49</t>
+          <t>2026-10-07 10:28:10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3647,7 +3397,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.360</t>
+          <t>Mouse session - Score: 0.309</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3657,7 +3407,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MOUSE_20261008_001</t>
+          <t>MOUSE_20261007_001</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3670,12 +3420,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-10-08</t>
+          <t>2026-10-07</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>17:32:49</t>
+          <t>10:28:10</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3684,58 +3434,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>21712</v>
+        <v>22165</v>
       </c>
       <c r="L23" t="n">
-        <v>21712</v>
+        <v>22165</v>
       </c>
       <c r="M23" t="n">
-        <v>35455.78</v>
+        <v>15690.7</v>
       </c>
       <c r="N23" t="n">
-        <v>21273.47</v>
+        <v>9414.42</v>
       </c>
       <c r="O23" t="n">
-        <v>14182.31</v>
+        <v>6276.28</v>
       </c>
       <c r="P23" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="Q23" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>148.73</v>
+        <v>53.69</v>
       </c>
       <c r="S23" t="n">
-        <v>238.4</v>
+        <v>292.24</v>
       </c>
       <c r="T23" t="n">
-        <v>30.24</v>
+        <v>39.3</v>
       </c>
       <c r="U23" t="n">
-        <v>143.04</v>
+        <v>175.34</v>
       </c>
       <c r="V23" t="n">
-        <v>95.36</v>
+        <v>116.9</v>
       </c>
       <c r="W23" t="n">
-        <v>17.03</v>
+        <v>27.18</v>
       </c>
       <c r="X23" t="n">
-        <v>18.35</v>
+        <v>23.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.73</v>
+        <v>53.69</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.36</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-10-08 11:35:30</t>
+          <t>2026-10-07 09:29:16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3745,7 +3495,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.425</t>
+          <t>Mouse session - Score: 0.300</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3755,7 +3505,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MOUSE_20261008_002</t>
+          <t>MOUSE_20261007_002</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3768,12 +3518,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-10-08</t>
+          <t>2026-10-07</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11:35:30</t>
+          <t>09:29:16</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3782,58 +3532,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>14895</v>
+        <v>11846</v>
       </c>
       <c r="L24" t="n">
-        <v>14895</v>
+        <v>11846</v>
       </c>
       <c r="M24" t="n">
-        <v>38992.87</v>
+        <v>34583.52</v>
       </c>
       <c r="N24" t="n">
-        <v>23395.72</v>
+        <v>20750.11</v>
       </c>
       <c r="O24" t="n">
-        <v>15597.15</v>
+        <v>13833.41</v>
       </c>
       <c r="P24" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R24" t="n">
-        <v>154.3</v>
+        <v>31.19</v>
       </c>
       <c r="S24" t="n">
-        <v>252.71</v>
+        <v>1108.93</v>
       </c>
       <c r="T24" t="n">
-        <v>32.38</v>
+        <v>32.12</v>
       </c>
       <c r="U24" t="n">
-        <v>151.63</v>
+        <v>665.36</v>
       </c>
       <c r="V24" t="n">
-        <v>101.08</v>
+        <v>443.57</v>
       </c>
       <c r="W24" t="n">
-        <v>6.09</v>
+        <v>19.55</v>
       </c>
       <c r="X24" t="n">
-        <v>21.47</v>
+        <v>19.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>154.3</v>
+        <v>31.19</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.425</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-10-08 12:51:39</t>
+          <t>2026-10-07 15:34:33</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3843,7 +3593,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.364</t>
+          <t>Mouse session - Score: 0.399</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3853,7 +3603,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MOUSE_20261008_003</t>
+          <t>MOUSE_20261007_003</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3866,12 +3616,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-10-08</t>
+          <t>2026-10-07</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12:51:39</t>
+          <t>15:34:33</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3880,58 +3630,58 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>22772</v>
+        <v>18206</v>
       </c>
       <c r="L25" t="n">
-        <v>22772</v>
+        <v>18206</v>
       </c>
       <c r="M25" t="n">
-        <v>33238.93</v>
+        <v>19768.33</v>
       </c>
       <c r="N25" t="n">
-        <v>19943.36</v>
+        <v>11861</v>
       </c>
       <c r="O25" t="n">
-        <v>13295.57</v>
+        <v>7907.33</v>
       </c>
       <c r="P25" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="Q25" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R25" t="n">
-        <v>172.04</v>
+        <v>160.06</v>
       </c>
       <c r="S25" t="n">
-        <v>193.2</v>
+        <v>123.5</v>
       </c>
       <c r="T25" t="n">
-        <v>11.06</v>
+        <v>46.17</v>
       </c>
       <c r="U25" t="n">
-        <v>115.92</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="V25" t="n">
-        <v>77.28</v>
+        <v>49.4</v>
       </c>
       <c r="W25" t="n">
-        <v>3.67</v>
+        <v>22.57</v>
       </c>
       <c r="X25" t="n">
-        <v>21.59</v>
+        <v>24.05</v>
       </c>
       <c r="Y25" t="n">
-        <v>172.04</v>
+        <v>160.06</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.364</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-10-09 16:33:33</t>
+          <t>2026-10-08 13:31:59</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3941,7 +3691,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.336</t>
+          <t>Mouse session - Score: 0.388</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3951,7 +3701,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MOUSE_20261009_000</t>
+          <t>MOUSE_20261008_000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3964,12 +3714,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-08</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>16:33:33</t>
+          <t>13:31:59</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3978,58 +3728,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>19941</v>
+        <v>24461</v>
       </c>
       <c r="L26" t="n">
-        <v>19941</v>
+        <v>24461</v>
       </c>
       <c r="M26" t="n">
-        <v>34942.43</v>
+        <v>39520.42</v>
       </c>
       <c r="N26" t="n">
-        <v>20965.46</v>
+        <v>23712.25</v>
       </c>
       <c r="O26" t="n">
-        <v>13976.97</v>
+        <v>15808.17</v>
       </c>
       <c r="P26" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="Q26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R26" t="n">
-        <v>148.9</v>
+        <v>135.45</v>
       </c>
       <c r="S26" t="n">
-        <v>234.67</v>
+        <v>291.76</v>
       </c>
       <c r="T26" t="n">
-        <v>36.86</v>
+        <v>15.48</v>
       </c>
       <c r="U26" t="n">
-        <v>140.8</v>
+        <v>175.06</v>
       </c>
       <c r="V26" t="n">
-        <v>93.87</v>
+        <v>116.7</v>
       </c>
       <c r="W26" t="n">
-        <v>29.9</v>
+        <v>5.82</v>
       </c>
       <c r="X26" t="n">
-        <v>23.78</v>
+        <v>19.17</v>
       </c>
       <c r="Y26" t="n">
-        <v>148.9</v>
+        <v>135.45</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.336</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-10-09 13:49:34</t>
+          <t>2026-10-08 09:40:05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4039,7 +3789,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.326</t>
+          <t>Mouse session - Score: 0.265</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4049,7 +3799,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MOUSE_20261009_001</t>
+          <t>MOUSE_20261008_001</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4062,12 +3812,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-08</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>13:49:34</t>
+          <t>09:40:05</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -4076,58 +3826,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>24751</v>
+        <v>24032</v>
       </c>
       <c r="L27" t="n">
-        <v>24751</v>
+        <v>24032</v>
       </c>
       <c r="M27" t="n">
-        <v>36876.7</v>
+        <v>34114.32</v>
       </c>
       <c r="N27" t="n">
-        <v>22126.02</v>
+        <v>20468.59</v>
       </c>
       <c r="O27" t="n">
-        <v>14750.68</v>
+        <v>13645.73</v>
       </c>
       <c r="P27" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q27" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R27" t="n">
-        <v>165.64</v>
+        <v>113.13</v>
       </c>
       <c r="S27" t="n">
-        <v>222.63</v>
+        <v>301.54</v>
       </c>
       <c r="T27" t="n">
-        <v>47.33</v>
+        <v>20.53</v>
       </c>
       <c r="U27" t="n">
-        <v>133.58</v>
+        <v>180.92</v>
       </c>
       <c r="V27" t="n">
-        <v>89.05</v>
+        <v>120.62</v>
       </c>
       <c r="W27" t="n">
-        <v>23.03</v>
+        <v>25.79</v>
       </c>
       <c r="X27" t="n">
-        <v>10.06</v>
+        <v>28.39</v>
       </c>
       <c r="Y27" t="n">
-        <v>165.64</v>
+        <v>113.13</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.326</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-10-09 10:43:12</t>
+          <t>2026-10-08 17:32:49</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4137,7 +3887,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.296</t>
+          <t>Mouse session - Score: 0.283</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4147,7 +3897,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MOUSE_20261009_002</t>
+          <t>MOUSE_20261008_002</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -4160,12 +3910,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-08</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10:43:12</t>
+          <t>17:32:49</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -4174,58 +3924,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>5398</v>
+        <v>13238</v>
       </c>
       <c r="L28" t="n">
-        <v>5398</v>
+        <v>13238</v>
       </c>
       <c r="M28" t="n">
-        <v>10523.83</v>
+        <v>33071.33</v>
       </c>
       <c r="N28" t="n">
-        <v>6314.3</v>
+        <v>19842.8</v>
       </c>
       <c r="O28" t="n">
-        <v>4209.53</v>
+        <v>13228.53</v>
       </c>
       <c r="P28" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>123.99</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>84.88</v>
+        <v>453.62</v>
       </c>
       <c r="T28" t="n">
-        <v>25.55</v>
+        <v>46.98</v>
       </c>
       <c r="U28" t="n">
-        <v>50.93</v>
+        <v>272.17</v>
       </c>
       <c r="V28" t="n">
-        <v>33.95</v>
+        <v>181.45</v>
       </c>
       <c r="W28" t="n">
-        <v>21.18</v>
+        <v>2.31</v>
       </c>
       <c r="X28" t="n">
-        <v>18.71</v>
+        <v>26.56</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.99</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.296</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-10-09 11:53:37</t>
+          <t>2026-10-08 09:45:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4235,7 +3985,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.309</t>
+          <t>Mouse session - Score: 0.383</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4245,7 +3995,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MOUSE_20261009_003</t>
+          <t>MOUSE_20261008_003</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -4258,12 +4008,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-08</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11:53:37</t>
+          <t>09:45:34</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4272,58 +4022,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>18347</v>
+        <v>29705</v>
       </c>
       <c r="L29" t="n">
-        <v>18347</v>
+        <v>29705</v>
       </c>
       <c r="M29" t="n">
-        <v>20642.06</v>
+        <v>29191.41</v>
       </c>
       <c r="N29" t="n">
-        <v>12385.24</v>
+        <v>17514.85</v>
       </c>
       <c r="O29" t="n">
-        <v>8256.82</v>
+        <v>11676.56</v>
       </c>
       <c r="P29" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="R29" t="n">
-        <v>179.13</v>
+        <v>179.1</v>
       </c>
       <c r="S29" t="n">
-        <v>115.23</v>
+        <v>162.99</v>
       </c>
       <c r="T29" t="n">
-        <v>7.78</v>
+        <v>14.92</v>
       </c>
       <c r="U29" t="n">
-        <v>69.14</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="V29" t="n">
-        <v>46.09</v>
+        <v>65.19</v>
       </c>
       <c r="W29" t="n">
-        <v>15.44</v>
+        <v>20.04</v>
       </c>
       <c r="X29" t="n">
-        <v>6.78</v>
+        <v>29.32</v>
       </c>
       <c r="Y29" t="n">
-        <v>179.13</v>
+        <v>179.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.309</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-10-10 10:43:23</t>
+          <t>2026-10-09 10:05:57</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4333,7 +4083,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.394</t>
+          <t>Mouse session - Score: 0.368</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4343,7 +4093,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MOUSE_20261010_000</t>
+          <t>MOUSE_20261009_000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -4356,12 +4106,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-10-10</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10:43:23</t>
+          <t>10:05:57</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4370,58 +4120,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>25164</v>
+        <v>24698</v>
       </c>
       <c r="L30" t="n">
-        <v>25164</v>
+        <v>24698</v>
       </c>
       <c r="M30" t="n">
-        <v>30021.45</v>
+        <v>38042.84</v>
       </c>
       <c r="N30" t="n">
-        <v>18012.87</v>
+        <v>22825.71</v>
       </c>
       <c r="O30" t="n">
-        <v>12008.58</v>
+        <v>15217.14</v>
       </c>
       <c r="P30" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q30" t="n">
         <v>11</v>
       </c>
-      <c r="Q30" t="n">
-        <v>8</v>
-      </c>
       <c r="R30" t="n">
-        <v>45.19</v>
+        <v>138.78</v>
       </c>
       <c r="S30" t="n">
-        <v>664.36</v>
+        <v>274.12</v>
       </c>
       <c r="T30" t="n">
-        <v>37.86</v>
+        <v>39.31</v>
       </c>
       <c r="U30" t="n">
-        <v>398.61</v>
+        <v>164.47</v>
       </c>
       <c r="V30" t="n">
-        <v>265.74</v>
+        <v>109.65</v>
       </c>
       <c r="W30" t="n">
-        <v>16.39</v>
+        <v>13.45</v>
       </c>
       <c r="X30" t="n">
-        <v>16.65</v>
+        <v>17.32</v>
       </c>
       <c r="Y30" t="n">
-        <v>45.19</v>
+        <v>138.78</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.394</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-10-10 12:59:25</t>
+          <t>2026-10-09 16:18:40</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4431,7 +4181,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.285</t>
+          <t>Mouse session - Score: 0.917</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4441,25 +4191,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MOUSE_20261010_001</t>
+          <t>MOUSE_20261009_001</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-10-10</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12:59:25</t>
+          <t>16:18:40</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4468,58 +4218,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>17098</v>
+        <v>9357</v>
       </c>
       <c r="L31" t="n">
-        <v>17098</v>
+        <v>9357</v>
       </c>
       <c r="M31" t="n">
-        <v>29444.92</v>
+        <v>26875.62</v>
       </c>
       <c r="N31" t="n">
-        <v>17666.95</v>
+        <v>16125.37</v>
       </c>
       <c r="O31" t="n">
-        <v>11777.97</v>
+        <v>10750.25</v>
       </c>
       <c r="P31" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q31" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="R31" t="n">
-        <v>155.49</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="S31" t="n">
-        <v>189.37</v>
+        <v>334.93</v>
       </c>
       <c r="T31" t="n">
-        <v>23.27</v>
+        <v>10.45</v>
       </c>
       <c r="U31" t="n">
-        <v>113.62</v>
+        <v>200.96</v>
       </c>
       <c r="V31" t="n">
-        <v>75.75</v>
+        <v>133.97</v>
       </c>
       <c r="W31" t="n">
-        <v>22.81</v>
+        <v>2.76</v>
       </c>
       <c r="X31" t="n">
-        <v>12.16</v>
+        <v>11.38</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.49</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.285</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-10-10 13:17:35</t>
+          <t>2026-10-09 13:47:50</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4529,7 +4279,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.365</t>
+          <t>Mouse session - Score: 0.327</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4539,7 +4289,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MOUSE_20261010_002</t>
+          <t>MOUSE_20261009_002</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4552,12 +4302,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-10-10</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>13:17:35</t>
+          <t>13:47:50</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4566,58 +4316,58 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>17853</v>
+        <v>27149</v>
       </c>
       <c r="L32" t="n">
-        <v>17853</v>
+        <v>27149</v>
       </c>
       <c r="M32" t="n">
-        <v>31892.78</v>
+        <v>37413.96</v>
       </c>
       <c r="N32" t="n">
-        <v>19135.67</v>
+        <v>22448.37</v>
       </c>
       <c r="O32" t="n">
-        <v>12757.11</v>
+        <v>14965.58</v>
       </c>
       <c r="P32" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q32" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R32" t="n">
-        <v>39.76</v>
+        <v>123.52</v>
       </c>
       <c r="S32" t="n">
-        <v>802.21</v>
+        <v>302.9</v>
       </c>
       <c r="T32" t="n">
-        <v>26.11</v>
+        <v>33.6</v>
       </c>
       <c r="U32" t="n">
-        <v>481.33</v>
+        <v>181.74</v>
       </c>
       <c r="V32" t="n">
-        <v>320.89</v>
+        <v>121.16</v>
       </c>
       <c r="W32" t="n">
-        <v>27.13</v>
+        <v>25.33</v>
       </c>
       <c r="X32" t="n">
-        <v>26.16</v>
+        <v>21.43</v>
       </c>
       <c r="Y32" t="n">
-        <v>39.76</v>
+        <v>123.52</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.365</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-10-10 15:58:11</t>
+          <t>2026-10-09 09:59:24</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4627,7 +4377,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.319</t>
+          <t>Mouse session - Score: 0.311</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4637,7 +4387,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MOUSE_20261010_003</t>
+          <t>MOUSE_20261009_003</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4650,12 +4400,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-10-10</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>15:58:11</t>
+          <t>09:59:24</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4664,58 +4414,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>10824</v>
+        <v>9152</v>
       </c>
       <c r="L33" t="n">
-        <v>10824</v>
+        <v>9152</v>
       </c>
       <c r="M33" t="n">
-        <v>36950.82</v>
+        <v>6629.07</v>
       </c>
       <c r="N33" t="n">
-        <v>22170.49</v>
+        <v>3977.44</v>
       </c>
       <c r="O33" t="n">
-        <v>14780.33</v>
+        <v>2651.63</v>
       </c>
       <c r="P33" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="Q33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R33" t="n">
-        <v>63.59</v>
+        <v>40.5</v>
       </c>
       <c r="S33" t="n">
-        <v>581.05</v>
+        <v>163.67</v>
       </c>
       <c r="T33" t="n">
-        <v>44.82</v>
+        <v>24.1</v>
       </c>
       <c r="U33" t="n">
-        <v>348.63</v>
+        <v>98.2</v>
       </c>
       <c r="V33" t="n">
-        <v>232.42</v>
+        <v>65.47</v>
       </c>
       <c r="W33" t="n">
-        <v>5.12</v>
+        <v>26.37</v>
       </c>
       <c r="X33" t="n">
-        <v>19.72</v>
+        <v>2.69</v>
       </c>
       <c r="Y33" t="n">
-        <v>63.59</v>
+        <v>40.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.319</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-10-12 12:04:22</t>
+          <t>2026-10-11 13:21:34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4725,7 +4475,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.432</t>
+          <t>Mouse session - Score: 0.925</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4735,25 +4485,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MOUSE_20261012_000</t>
+          <t>MOUSE_20261011_000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-10-12</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>12:04:22</t>
+          <t>13:21:34</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4762,58 +4512,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>21996</v>
+        <v>8947</v>
       </c>
       <c r="L34" t="n">
-        <v>21996</v>
+        <v>8947</v>
       </c>
       <c r="M34" t="n">
-        <v>14479.96</v>
+        <v>12269.09</v>
       </c>
       <c r="N34" t="n">
-        <v>8687.969999999999</v>
+        <v>7361.45</v>
       </c>
       <c r="O34" t="n">
-        <v>5791.98</v>
+        <v>4907.63</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Q34" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R34" t="n">
-        <v>149.43</v>
+        <v>125.28</v>
       </c>
       <c r="S34" t="n">
-        <v>96.90000000000001</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="T34" t="n">
-        <v>28.1</v>
+        <v>17.13</v>
       </c>
       <c r="U34" t="n">
-        <v>58.14</v>
+        <v>58.76</v>
       </c>
       <c r="V34" t="n">
-        <v>38.76</v>
+        <v>39.17</v>
       </c>
       <c r="W34" t="n">
-        <v>8.67</v>
+        <v>19.65</v>
       </c>
       <c r="X34" t="n">
-        <v>19.99</v>
+        <v>25.86</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.43</v>
+        <v>125.28</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.432</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-10-12 16:19:33</t>
+          <t>2026-10-11 17:33:20</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4823,7 +4573,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.261</t>
+          <t>Mouse session - Score: 0.432</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4833,7 +4583,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MOUSE_20261012_001</t>
+          <t>MOUSE_20261011_001</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4846,12 +4596,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-10-12</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>16:19:33</t>
+          <t>17:33:20</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4860,58 +4610,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>25504</v>
+        <v>25866</v>
       </c>
       <c r="L35" t="n">
-        <v>25504</v>
+        <v>25866</v>
       </c>
       <c r="M35" t="n">
-        <v>10788.76</v>
+        <v>27216.33</v>
       </c>
       <c r="N35" t="n">
-        <v>6473.26</v>
+        <v>16329.8</v>
       </c>
       <c r="O35" t="n">
-        <v>4315.5</v>
+        <v>10886.53</v>
       </c>
       <c r="P35" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="R35" t="n">
-        <v>103</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="S35" t="n">
-        <v>104.75</v>
+        <v>352.13</v>
       </c>
       <c r="T35" t="n">
-        <v>16.56</v>
+        <v>20.07</v>
       </c>
       <c r="U35" t="n">
-        <v>62.85</v>
+        <v>211.28</v>
       </c>
       <c r="V35" t="n">
-        <v>41.9</v>
+        <v>140.85</v>
       </c>
       <c r="W35" t="n">
-        <v>28.38</v>
+        <v>23.67</v>
       </c>
       <c r="X35" t="n">
-        <v>12.62</v>
+        <v>6.99</v>
       </c>
       <c r="Y35" t="n">
-        <v>103</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.261</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-10-12 10:35:39</t>
+          <t>2026-10-11 09:57:55</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4921,7 +4671,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.370</t>
+          <t>Mouse session - Score: 0.802</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4931,25 +4681,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MOUSE_20261012_002</t>
+          <t>MOUSE_20261011_002</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-10-12</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10:35:39</t>
+          <t>09:57:55</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4958,58 +4708,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>24631</v>
+        <v>16398</v>
       </c>
       <c r="L36" t="n">
-        <v>24631</v>
+        <v>16398</v>
       </c>
       <c r="M36" t="n">
-        <v>38896.42</v>
+        <v>16407.4</v>
       </c>
       <c r="N36" t="n">
-        <v>23337.85</v>
+        <v>9844.440000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>15558.57</v>
+        <v>6562.96</v>
       </c>
       <c r="P36" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="Q36" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="R36" t="n">
-        <v>52.89</v>
+        <v>48.81</v>
       </c>
       <c r="S36" t="n">
-        <v>735.4299999999999</v>
+        <v>336.13</v>
       </c>
       <c r="T36" t="n">
-        <v>27.02</v>
+        <v>38.27</v>
       </c>
       <c r="U36" t="n">
-        <v>441.26</v>
+        <v>201.68</v>
       </c>
       <c r="V36" t="n">
-        <v>294.17</v>
+        <v>134.45</v>
       </c>
       <c r="W36" t="n">
-        <v>16.33</v>
+        <v>26.22</v>
       </c>
       <c r="X36" t="n">
-        <v>4.4</v>
+        <v>29.64</v>
       </c>
       <c r="Y36" t="n">
-        <v>52.89</v>
+        <v>48.81</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.37</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-10-12 15:51:06</t>
+          <t>2026-10-11 10:21:56</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5019,7 +4769,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.264</t>
+          <t>Mouse session - Score: 0.441</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5029,7 +4779,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MOUSE_20261012_003</t>
+          <t>MOUSE_20261011_003</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -5042,12 +4792,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-10-12</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>15:51:06</t>
+          <t>10:21:56</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -5056,58 +4806,58 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>8313</v>
+        <v>21557</v>
       </c>
       <c r="L37" t="n">
-        <v>8313</v>
+        <v>21557</v>
       </c>
       <c r="M37" t="n">
-        <v>25203.7</v>
+        <v>18069.03</v>
       </c>
       <c r="N37" t="n">
-        <v>15122.22</v>
+        <v>10841.42</v>
       </c>
       <c r="O37" t="n">
-        <v>10081.48</v>
+        <v>7227.61</v>
       </c>
       <c r="P37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R37" t="n">
-        <v>96.34999999999999</v>
+        <v>101.09</v>
       </c>
       <c r="S37" t="n">
-        <v>261.57</v>
+        <v>178.75</v>
       </c>
       <c r="T37" t="n">
-        <v>39.17</v>
+        <v>35.31</v>
       </c>
       <c r="U37" t="n">
-        <v>156.94</v>
+        <v>107.25</v>
       </c>
       <c r="V37" t="n">
-        <v>104.63</v>
+        <v>71.5</v>
       </c>
       <c r="W37" t="n">
-        <v>28.59</v>
+        <v>10.07</v>
       </c>
       <c r="X37" t="n">
-        <v>14.1</v>
+        <v>28.71</v>
       </c>
       <c r="Y37" t="n">
-        <v>96.34999999999999</v>
+        <v>101.09</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.264</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-10-13 11:24:44</t>
+          <t>2026-10-12 14:03:47</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5117,7 +4867,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.445</t>
+          <t>Mouse session - Score: 0.442</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5127,7 +4877,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MOUSE_20261013_000</t>
+          <t>MOUSE_20261012_000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -5140,12 +4890,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-12</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>11:24:44</t>
+          <t>14:03:47</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5154,58 +4904,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>10893</v>
+        <v>16972</v>
       </c>
       <c r="L38" t="n">
-        <v>10893</v>
+        <v>16972</v>
       </c>
       <c r="M38" t="n">
-        <v>10410.6</v>
+        <v>22221.77</v>
       </c>
       <c r="N38" t="n">
-        <v>6246.36</v>
+        <v>13333.06</v>
       </c>
       <c r="O38" t="n">
-        <v>4164.24</v>
+        <v>8888.709999999999</v>
       </c>
       <c r="P38" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="R38" t="n">
-        <v>173.83</v>
+        <v>59.81</v>
       </c>
       <c r="S38" t="n">
-        <v>59.89</v>
+        <v>371.54</v>
       </c>
       <c r="T38" t="n">
-        <v>6.05</v>
+        <v>18.49</v>
       </c>
       <c r="U38" t="n">
-        <v>35.93</v>
+        <v>222.92</v>
       </c>
       <c r="V38" t="n">
-        <v>23.96</v>
+        <v>148.62</v>
       </c>
       <c r="W38" t="n">
-        <v>6.7</v>
+        <v>28.69</v>
       </c>
       <c r="X38" t="n">
-        <v>26.38</v>
+        <v>28.95</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.83</v>
+        <v>59.81</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.445</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-10-13 14:06:19</t>
+          <t>2026-10-12 11:58:35</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5215,7 +4965,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.379</t>
+          <t>Mouse session - Score: 0.325</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5225,7 +4975,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MOUSE_20261013_001</t>
+          <t>MOUSE_20261012_001</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -5238,12 +4988,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-12</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>14:06:19</t>
+          <t>11:58:35</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5252,58 +5002,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>12777</v>
+        <v>5639</v>
       </c>
       <c r="L39" t="n">
-        <v>12777</v>
+        <v>5639</v>
       </c>
       <c r="M39" t="n">
-        <v>5636.72</v>
+        <v>31876.43</v>
       </c>
       <c r="N39" t="n">
-        <v>3382.03</v>
+        <v>19125.86</v>
       </c>
       <c r="O39" t="n">
-        <v>2254.69</v>
+        <v>12750.57</v>
       </c>
       <c r="P39" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Q39" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R39" t="n">
-        <v>115.76</v>
+        <v>161.61</v>
       </c>
       <c r="S39" t="n">
-        <v>48.69</v>
+        <v>197.24</v>
       </c>
       <c r="T39" t="n">
-        <v>22.58</v>
+        <v>30.69</v>
       </c>
       <c r="U39" t="n">
-        <v>29.22</v>
+        <v>118.34</v>
       </c>
       <c r="V39" t="n">
-        <v>19.48</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="W39" t="n">
-        <v>16.95</v>
+        <v>25.08</v>
       </c>
       <c r="X39" t="n">
-        <v>4.13</v>
+        <v>7.21</v>
       </c>
       <c r="Y39" t="n">
-        <v>115.76</v>
+        <v>161.61</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.379</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-10-13 12:27:28</t>
+          <t>2026-10-12 12:06:14</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5313,7 +5063,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.396</t>
+          <t>Mouse session - Score: 0.438</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5323,7 +5073,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MOUSE_20261013_002</t>
+          <t>MOUSE_20261012_002</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -5336,12 +5086,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-12</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>12:27:28</t>
+          <t>12:06:14</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5350,58 +5100,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>6754</v>
+        <v>18315</v>
       </c>
       <c r="L40" t="n">
-        <v>6754</v>
+        <v>18315</v>
       </c>
       <c r="M40" t="n">
-        <v>19191.9</v>
+        <v>25026.66</v>
       </c>
       <c r="N40" t="n">
-        <v>11515.14</v>
+        <v>15015.99</v>
       </c>
       <c r="O40" t="n">
-        <v>7676.76</v>
+        <v>10010.66</v>
       </c>
       <c r="P40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="R40" t="n">
-        <v>121.12</v>
+        <v>160.27</v>
       </c>
       <c r="S40" t="n">
-        <v>158.46</v>
+        <v>156.16</v>
       </c>
       <c r="T40" t="n">
-        <v>24.15</v>
+        <v>49.96</v>
       </c>
       <c r="U40" t="n">
-        <v>95.06999999999999</v>
+        <v>93.69</v>
       </c>
       <c r="V40" t="n">
-        <v>63.38</v>
+        <v>62.46</v>
       </c>
       <c r="W40" t="n">
-        <v>28.41</v>
+        <v>5.86</v>
       </c>
       <c r="X40" t="n">
-        <v>27.16</v>
+        <v>20.55</v>
       </c>
       <c r="Y40" t="n">
-        <v>121.12</v>
+        <v>160.27</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.396</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-10-13 12:34:05</t>
+          <t>2026-10-12 17:12:39</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5411,7 +5161,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.360</t>
+          <t>Mouse session - Score: 0.327</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5421,7 +5171,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MOUSE_20261013_003</t>
+          <t>MOUSE_20261012_003</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5434,12 +5184,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-12</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>12:34:05</t>
+          <t>17:12:39</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5448,58 +5198,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>17586</v>
+        <v>10492</v>
       </c>
       <c r="L41" t="n">
-        <v>17586</v>
+        <v>10492</v>
       </c>
       <c r="M41" t="n">
-        <v>33629.12</v>
+        <v>5370.43</v>
       </c>
       <c r="N41" t="n">
-        <v>20177.47</v>
+        <v>3222.26</v>
       </c>
       <c r="O41" t="n">
-        <v>13451.65</v>
+        <v>2148.17</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="R41" t="n">
-        <v>73.98</v>
+        <v>115.25</v>
       </c>
       <c r="S41" t="n">
-        <v>454.59</v>
+        <v>46.6</v>
       </c>
       <c r="T41" t="n">
-        <v>20.57</v>
+        <v>44.88</v>
       </c>
       <c r="U41" t="n">
-        <v>272.75</v>
+        <v>27.96</v>
       </c>
       <c r="V41" t="n">
-        <v>181.84</v>
+        <v>18.64</v>
       </c>
       <c r="W41" t="n">
-        <v>7.48</v>
+        <v>4.98</v>
       </c>
       <c r="X41" t="n">
-        <v>7.12</v>
+        <v>17.74</v>
       </c>
       <c r="Y41" t="n">
-        <v>73.98</v>
+        <v>115.25</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.36</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-10-14 10:11:06</t>
+          <t>2026-10-13 17:57:16</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5509,7 +5259,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.289</t>
+          <t>Mouse session - Score: 0.293</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -5519,7 +5269,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MOUSE_20261014_000</t>
+          <t>MOUSE_20261013_000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5532,12 +5282,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-10-14</t>
+          <t>2026-10-13</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10:11:06</t>
+          <t>17:57:16</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5546,58 +5296,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>11254</v>
+        <v>24540</v>
       </c>
       <c r="L42" t="n">
-        <v>11254</v>
+        <v>24540</v>
       </c>
       <c r="M42" t="n">
-        <v>13410.96</v>
+        <v>25224.31</v>
       </c>
       <c r="N42" t="n">
-        <v>8046.58</v>
+        <v>15134.59</v>
       </c>
       <c r="O42" t="n">
-        <v>5364.38</v>
+        <v>10089.72</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="Q42" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="R42" t="n">
-        <v>131.88</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="S42" t="n">
-        <v>101.69</v>
+        <v>254.68</v>
       </c>
       <c r="T42" t="n">
-        <v>38.38</v>
+        <v>9.07</v>
       </c>
       <c r="U42" t="n">
-        <v>61.02</v>
+        <v>152.81</v>
       </c>
       <c r="V42" t="n">
-        <v>40.68</v>
+        <v>101.87</v>
       </c>
       <c r="W42" t="n">
-        <v>22.11</v>
+        <v>8.43</v>
       </c>
       <c r="X42" t="n">
-        <v>3.61</v>
+        <v>5.85</v>
       </c>
       <c r="Y42" t="n">
-        <v>131.88</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.289</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-10-14 16:52:01</t>
+          <t>2026-10-13 16:14:34</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5607,7 +5357,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.355</t>
+          <t>Mouse session - Score: 0.342</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5617,7 +5367,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MOUSE_20261014_001</t>
+          <t>MOUSE_20261013_001</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5630,12 +5380,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-10-14</t>
+          <t>2026-10-13</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16:52:01</t>
+          <t>16:14:34</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5644,58 +5394,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>21905</v>
+        <v>24878</v>
       </c>
       <c r="L43" t="n">
-        <v>21905</v>
+        <v>24878</v>
       </c>
       <c r="M43" t="n">
-        <v>30973.99</v>
+        <v>30195.21</v>
       </c>
       <c r="N43" t="n">
-        <v>18584.39</v>
+        <v>18117.13</v>
       </c>
       <c r="O43" t="n">
-        <v>12389.59</v>
+        <v>12078.08</v>
       </c>
       <c r="P43" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="Q43" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="R43" t="n">
-        <v>160.37</v>
+        <v>90.78</v>
       </c>
       <c r="S43" t="n">
-        <v>193.14</v>
+        <v>332.63</v>
       </c>
       <c r="T43" t="n">
-        <v>39.06</v>
+        <v>44.82</v>
       </c>
       <c r="U43" t="n">
-        <v>115.89</v>
+        <v>199.58</v>
       </c>
       <c r="V43" t="n">
-        <v>77.26000000000001</v>
+        <v>133.05</v>
       </c>
       <c r="W43" t="n">
-        <v>22.8</v>
+        <v>17.95</v>
       </c>
       <c r="X43" t="n">
-        <v>12.5</v>
+        <v>2.04</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.37</v>
+        <v>90.78</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.355</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-10-14 12:27:25</t>
+          <t>2026-10-13 11:31:10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5705,7 +5455,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.440</t>
+          <t>Mouse session - Score: 0.895</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -5715,25 +5465,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MOUSE_20261014_002</t>
+          <t>MOUSE_20261013_002</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-10-14</t>
+          <t>2026-10-13</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>12:27:25</t>
+          <t>11:31:10</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5742,58 +5492,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>17608</v>
+        <v>20366</v>
       </c>
       <c r="L44" t="n">
-        <v>17608</v>
+        <v>20366</v>
       </c>
       <c r="M44" t="n">
-        <v>26940.41</v>
+        <v>10394.86</v>
       </c>
       <c r="N44" t="n">
-        <v>16164.24</v>
+        <v>6236.92</v>
       </c>
       <c r="O44" t="n">
-        <v>10776.16</v>
+        <v>4157.95</v>
       </c>
       <c r="P44" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q44" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="R44" t="n">
-        <v>118.16</v>
+        <v>88.53</v>
       </c>
       <c r="S44" t="n">
-        <v>228</v>
+        <v>117.42</v>
       </c>
       <c r="T44" t="n">
-        <v>14.34</v>
+        <v>33.79</v>
       </c>
       <c r="U44" t="n">
-        <v>136.8</v>
+        <v>70.45</v>
       </c>
       <c r="V44" t="n">
-        <v>91.2</v>
+        <v>46.97</v>
       </c>
       <c r="W44" t="n">
-        <v>11.21</v>
+        <v>2.11</v>
       </c>
       <c r="X44" t="n">
-        <v>4.98</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="Y44" t="n">
-        <v>118.16</v>
+        <v>88.53</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.44</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-10-14 12:07:28</t>
+          <t>2026-10-13 13:46:32</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5803,7 +5553,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.320</t>
+          <t>Mouse session - Score: 0.341</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5813,7 +5563,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MOUSE_20261014_003</t>
+          <t>MOUSE_20261013_003</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5826,12 +5576,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-10-14</t>
+          <t>2026-10-13</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>12:07:28</t>
+          <t>13:46:32</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5840,58 +5590,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>19251</v>
+        <v>6591</v>
       </c>
       <c r="L45" t="n">
-        <v>19251</v>
+        <v>6591</v>
       </c>
       <c r="M45" t="n">
-        <v>9425.24</v>
+        <v>31337.53</v>
       </c>
       <c r="N45" t="n">
-        <v>5655.14</v>
+        <v>18802.52</v>
       </c>
       <c r="O45" t="n">
-        <v>3770.1</v>
+        <v>12535.01</v>
       </c>
       <c r="P45" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q45" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R45" t="n">
-        <v>162.72</v>
+        <v>59.22</v>
       </c>
       <c r="S45" t="n">
-        <v>57.92</v>
+        <v>529.1799999999999</v>
       </c>
       <c r="T45" t="n">
-        <v>19.63</v>
+        <v>25.06</v>
       </c>
       <c r="U45" t="n">
-        <v>34.75</v>
+        <v>317.51</v>
       </c>
       <c r="V45" t="n">
-        <v>23.17</v>
+        <v>211.67</v>
       </c>
       <c r="W45" t="n">
-        <v>7.23</v>
+        <v>29.83</v>
       </c>
       <c r="X45" t="n">
-        <v>6.26</v>
+        <v>7.26</v>
       </c>
       <c r="Y45" t="n">
-        <v>162.72</v>
+        <v>59.22</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.32</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-10-15 15:59:31</t>
+          <t>2026-10-14 09:43:14</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5901,7 +5651,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.267</t>
+          <t>Mouse session - Score: 0.949</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5911,25 +5661,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MOUSE_20261015_000</t>
+          <t>MOUSE_20261014_000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-10-15</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>15:59:31</t>
+          <t>09:43:14</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5938,58 +5688,58 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>18111</v>
+        <v>29250</v>
       </c>
       <c r="L46" t="n">
-        <v>18111</v>
+        <v>29250</v>
       </c>
       <c r="M46" t="n">
-        <v>25974.77</v>
+        <v>28095.6</v>
       </c>
       <c r="N46" t="n">
-        <v>15584.86</v>
+        <v>16857.36</v>
       </c>
       <c r="O46" t="n">
-        <v>10389.91</v>
+        <v>11238.24</v>
       </c>
       <c r="P46" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="R46" t="n">
-        <v>110.79</v>
+        <v>153.31</v>
       </c>
       <c r="S46" t="n">
-        <v>234.45</v>
+        <v>183.26</v>
       </c>
       <c r="T46" t="n">
-        <v>26.18</v>
+        <v>24.33</v>
       </c>
       <c r="U46" t="n">
-        <v>140.67</v>
+        <v>109.96</v>
       </c>
       <c r="V46" t="n">
-        <v>93.78</v>
+        <v>73.31</v>
       </c>
       <c r="W46" t="n">
-        <v>13.85</v>
+        <v>12.74</v>
       </c>
       <c r="X46" t="n">
-        <v>11.78</v>
+        <v>2.87</v>
       </c>
       <c r="Y46" t="n">
-        <v>110.79</v>
+        <v>153.31</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.267</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-10-15 10:14:37</t>
+          <t>2026-10-14 14:45:52</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6009,7 +5759,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MOUSE_20261015_001</t>
+          <t>MOUSE_20261014_001</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6022,12 +5772,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-10-15</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10:14:37</t>
+          <t>14:45:52</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6036,49 +5786,49 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>12069</v>
+        <v>28037</v>
       </c>
       <c r="L47" t="n">
-        <v>12069</v>
+        <v>28037</v>
       </c>
       <c r="M47" t="n">
-        <v>12761.8</v>
+        <v>27719.3</v>
       </c>
       <c r="N47" t="n">
-        <v>7657.08</v>
+        <v>16631.58</v>
       </c>
       <c r="O47" t="n">
-        <v>5104.72</v>
+        <v>11087.72</v>
       </c>
       <c r="P47" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="Q47" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R47" t="n">
-        <v>93.22</v>
+        <v>100.21</v>
       </c>
       <c r="S47" t="n">
-        <v>136.91</v>
+        <v>276.6</v>
       </c>
       <c r="T47" t="n">
-        <v>41.55</v>
+        <v>48.47</v>
       </c>
       <c r="U47" t="n">
-        <v>82.14</v>
+        <v>165.96</v>
       </c>
       <c r="V47" t="n">
-        <v>54.76</v>
+        <v>110.64</v>
       </c>
       <c r="W47" t="n">
-        <v>18.74</v>
+        <v>29.49</v>
       </c>
       <c r="X47" t="n">
-        <v>27.82</v>
+        <v>13.16</v>
       </c>
       <c r="Y47" t="n">
-        <v>93.22</v>
+        <v>100.21</v>
       </c>
       <c r="Z47" t="n">
         <v>0.355</v>
@@ -6087,7 +5837,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-10-15 14:36:45</t>
+          <t>2026-10-14 12:35:47</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6097,7 +5847,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.299</t>
+          <t>Mouse session - Score: 0.319</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -6107,7 +5857,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MOUSE_20261015_002</t>
+          <t>MOUSE_20261014_002</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6120,12 +5870,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-10-15</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>14:36:45</t>
+          <t>12:35:47</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6134,58 +5884,58 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>22937</v>
+        <v>8557</v>
       </c>
       <c r="L48" t="n">
-        <v>22937</v>
+        <v>8557</v>
       </c>
       <c r="M48" t="n">
-        <v>36281.41</v>
+        <v>37556.92</v>
       </c>
       <c r="N48" t="n">
-        <v>21768.84</v>
+        <v>22534.15</v>
       </c>
       <c r="O48" t="n">
-        <v>14512.56</v>
+        <v>15022.77</v>
       </c>
       <c r="P48" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Q48" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R48" t="n">
-        <v>130.72</v>
+        <v>161.03</v>
       </c>
       <c r="S48" t="n">
-        <v>277.55</v>
+        <v>233.23</v>
       </c>
       <c r="T48" t="n">
-        <v>8.92</v>
+        <v>41.07</v>
       </c>
       <c r="U48" t="n">
-        <v>166.53</v>
+        <v>139.94</v>
       </c>
       <c r="V48" t="n">
-        <v>111.02</v>
+        <v>93.29000000000001</v>
       </c>
       <c r="W48" t="n">
-        <v>4.56</v>
+        <v>19.49</v>
       </c>
       <c r="X48" t="n">
-        <v>6.84</v>
+        <v>16.36</v>
       </c>
       <c r="Y48" t="n">
-        <v>130.72</v>
+        <v>161.03</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.299</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-10-15 13:16:58</t>
+          <t>2026-10-14 15:19:53</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6195,7 +5945,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.287</t>
+          <t>Mouse session - Score: 0.854</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -6205,25 +5955,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MOUSE_20261015_003</t>
+          <t>MOUSE_20261014_003</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-10-15</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>13:16:58</t>
+          <t>15:19:53</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6232,58 +5982,58 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>13231</v>
+        <v>17136</v>
       </c>
       <c r="L49" t="n">
-        <v>13231</v>
+        <v>17136</v>
       </c>
       <c r="M49" t="n">
-        <v>38790.04</v>
+        <v>17453.8</v>
       </c>
       <c r="N49" t="n">
-        <v>23274.03</v>
+        <v>10472.28</v>
       </c>
       <c r="O49" t="n">
-        <v>15516.02</v>
+        <v>6981.52</v>
       </c>
       <c r="P49" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R49" t="n">
-        <v>34.66</v>
+        <v>126.1</v>
       </c>
       <c r="S49" t="n">
-        <v>1119.02</v>
+        <v>138.41</v>
       </c>
       <c r="T49" t="n">
-        <v>32.11</v>
+        <v>26.06</v>
       </c>
       <c r="U49" t="n">
-        <v>671.41</v>
+        <v>83.05</v>
       </c>
       <c r="V49" t="n">
-        <v>447.61</v>
+        <v>55.36</v>
       </c>
       <c r="W49" t="n">
-        <v>6.98</v>
+        <v>28.2</v>
       </c>
       <c r="X49" t="n">
-        <v>2.19</v>
+        <v>3.56</v>
       </c>
       <c r="Y49" t="n">
-        <v>34.66</v>
+        <v>126.1</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.287</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-10-16 11:56:55</t>
+          <t>2026-10-15 14:26:12</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6293,7 +6043,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.400</t>
+          <t>Mouse session - Score: 0.263</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -6303,7 +6053,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MOUSE_20261016_000</t>
+          <t>MOUSE_20261015_000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6316,12 +6066,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>11:56:55</t>
+          <t>14:26:12</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6330,58 +6080,58 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>22133</v>
+        <v>18424</v>
       </c>
       <c r="L50" t="n">
-        <v>22133</v>
+        <v>18424</v>
       </c>
       <c r="M50" t="n">
-        <v>23191.74</v>
+        <v>26158.75</v>
       </c>
       <c r="N50" t="n">
-        <v>13915.04</v>
+        <v>15695.25</v>
       </c>
       <c r="O50" t="n">
-        <v>9276.690000000001</v>
+        <v>10463.5</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q50" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>91.23999999999999</v>
+        <v>83.36</v>
       </c>
       <c r="S50" t="n">
-        <v>254.18</v>
+        <v>313.8</v>
       </c>
       <c r="T50" t="n">
-        <v>21.34</v>
+        <v>35.06</v>
       </c>
       <c r="U50" t="n">
-        <v>152.51</v>
+        <v>188.28</v>
       </c>
       <c r="V50" t="n">
-        <v>101.67</v>
+        <v>125.52</v>
       </c>
       <c r="W50" t="n">
-        <v>15.17</v>
+        <v>27.71</v>
       </c>
       <c r="X50" t="n">
-        <v>16.37</v>
+        <v>12.17</v>
       </c>
       <c r="Y50" t="n">
-        <v>91.23999999999999</v>
+        <v>83.36</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.4</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-10-16 09:59:54</t>
+          <t>2026-10-15 10:58:10</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6391,7 +6141,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.351</t>
+          <t>Mouse session - Score: 0.363</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -6401,7 +6151,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MOUSE_20261016_001</t>
+          <t>MOUSE_20261015_001</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6414,12 +6164,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>09:59:54</t>
+          <t>10:58:10</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -6428,58 +6178,58 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>15378</v>
+        <v>13259</v>
       </c>
       <c r="L51" t="n">
-        <v>15378</v>
+        <v>13259</v>
       </c>
       <c r="M51" t="n">
-        <v>23174.85</v>
+        <v>16076.94</v>
       </c>
       <c r="N51" t="n">
-        <v>13904.91</v>
+        <v>9646.16</v>
       </c>
       <c r="O51" t="n">
-        <v>9269.940000000001</v>
+        <v>6430.78</v>
       </c>
       <c r="P51" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="Q51" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="R51" t="n">
-        <v>135.08</v>
+        <v>170.83</v>
       </c>
       <c r="S51" t="n">
-        <v>171.57</v>
+        <v>94.11</v>
       </c>
       <c r="T51" t="n">
-        <v>24.25</v>
+        <v>27.35</v>
       </c>
       <c r="U51" t="n">
-        <v>102.94</v>
+        <v>56.47</v>
       </c>
       <c r="V51" t="n">
-        <v>68.63</v>
+        <v>37.64</v>
       </c>
       <c r="W51" t="n">
-        <v>17.18</v>
+        <v>6.74</v>
       </c>
       <c r="X51" t="n">
-        <v>15.36</v>
+        <v>3.67</v>
       </c>
       <c r="Y51" t="n">
-        <v>135.08</v>
+        <v>170.83</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.351</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-10-16 13:40:12</t>
+          <t>2026-10-15 11:10:52</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6489,7 +6239,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.281</t>
+          <t>Mouse session - Score: 0.443</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -6499,7 +6249,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MOUSE_20261016_002</t>
+          <t>MOUSE_20261015_002</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6512,12 +6262,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>13:40:12</t>
+          <t>11:10:52</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -6526,58 +6276,58 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>13804</v>
+        <v>14405</v>
       </c>
       <c r="L52" t="n">
-        <v>13804</v>
+        <v>14405</v>
       </c>
       <c r="M52" t="n">
-        <v>5620.31</v>
+        <v>28519.16</v>
       </c>
       <c r="N52" t="n">
-        <v>3372.18</v>
+        <v>17111.49</v>
       </c>
       <c r="O52" t="n">
-        <v>2248.12</v>
+        <v>11407.66</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q52" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="R52" t="n">
-        <v>37.46</v>
+        <v>53.23</v>
       </c>
       <c r="S52" t="n">
-        <v>150.05</v>
+        <v>535.76</v>
       </c>
       <c r="T52" t="n">
-        <v>46.67</v>
+        <v>12.77</v>
       </c>
       <c r="U52" t="n">
-        <v>90.03</v>
+        <v>321.46</v>
       </c>
       <c r="V52" t="n">
-        <v>60.02</v>
+        <v>214.31</v>
       </c>
       <c r="W52" t="n">
-        <v>14.33</v>
+        <v>23.21</v>
       </c>
       <c r="X52" t="n">
-        <v>7.71</v>
+        <v>27.64</v>
       </c>
       <c r="Y52" t="n">
-        <v>37.46</v>
+        <v>53.23</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.281</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-10-16 09:52:02</t>
+          <t>2026-10-15 13:47:15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6587,7 +6337,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.424</t>
+          <t>Mouse session - Score: 0.869</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -6597,25 +6347,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MOUSE_20261016_003</t>
+          <t>MOUSE_20261015_003</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>09:52:02</t>
+          <t>13:47:15</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -6624,58 +6374,58 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>26652</v>
+        <v>22694</v>
       </c>
       <c r="L53" t="n">
-        <v>26652</v>
+        <v>22694</v>
       </c>
       <c r="M53" t="n">
-        <v>38507.46</v>
+        <v>21235.56</v>
       </c>
       <c r="N53" t="n">
-        <v>23104.48</v>
+        <v>12741.34</v>
       </c>
       <c r="O53" t="n">
-        <v>15402.99</v>
+        <v>8494.23</v>
       </c>
       <c r="P53" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q53" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="R53" t="n">
-        <v>40.17</v>
+        <v>137.97</v>
       </c>
       <c r="S53" t="n">
-        <v>958.58</v>
+        <v>153.91</v>
       </c>
       <c r="T53" t="n">
-        <v>34.8</v>
+        <v>27.02</v>
       </c>
       <c r="U53" t="n">
-        <v>575.15</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="V53" t="n">
-        <v>383.43</v>
+        <v>61.56</v>
       </c>
       <c r="W53" t="n">
-        <v>22</v>
+        <v>18.36</v>
       </c>
       <c r="X53" t="n">
-        <v>28.76</v>
+        <v>11.94</v>
       </c>
       <c r="Y53" t="n">
-        <v>40.17</v>
+        <v>137.97</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.424</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-10-19 11:44:17</t>
+          <t>2026-10-16 14:32:24</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6685,7 +6435,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.261</t>
+          <t>Mouse session - Score: 0.322</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -6695,7 +6445,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MOUSE_20261019_000</t>
+          <t>MOUSE_20261016_000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6708,12 +6458,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>11:44:17</t>
+          <t>14:32:24</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -6722,58 +6472,58 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>13032</v>
+        <v>20185</v>
       </c>
       <c r="L54" t="n">
-        <v>13032</v>
+        <v>20185</v>
       </c>
       <c r="M54" t="n">
-        <v>8563.709999999999</v>
+        <v>18279.99</v>
       </c>
       <c r="N54" t="n">
-        <v>5138.23</v>
+        <v>10968</v>
       </c>
       <c r="O54" t="n">
-        <v>3425.48</v>
+        <v>7312</v>
       </c>
       <c r="P54" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="Q54" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R54" t="n">
-        <v>131.43</v>
+        <v>48.89</v>
       </c>
       <c r="S54" t="n">
-        <v>65.16</v>
+        <v>373.89</v>
       </c>
       <c r="T54" t="n">
-        <v>34.78</v>
+        <v>20.62</v>
       </c>
       <c r="U54" t="n">
-        <v>39.09</v>
+        <v>224.33</v>
       </c>
       <c r="V54" t="n">
-        <v>26.06</v>
+        <v>149.55</v>
       </c>
       <c r="W54" t="n">
-        <v>8.890000000000001</v>
+        <v>2.16</v>
       </c>
       <c r="X54" t="n">
-        <v>25.87</v>
+        <v>11.37</v>
       </c>
       <c r="Y54" t="n">
-        <v>131.43</v>
+        <v>48.89</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.261</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-10-19 09:17:17</t>
+          <t>2026-10-16 17:40:35</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6783,7 +6533,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.399</t>
+          <t>Mouse session - Score: 0.400</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6793,7 +6543,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MOUSE_20261019_001</t>
+          <t>MOUSE_20261016_001</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6806,12 +6556,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>09:17:17</t>
+          <t>17:40:35</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6820,58 +6570,58 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>8675</v>
+        <v>15470</v>
       </c>
       <c r="L55" t="n">
-        <v>8675</v>
+        <v>15470</v>
       </c>
       <c r="M55" t="n">
-        <v>17017.55</v>
+        <v>11366.35</v>
       </c>
       <c r="N55" t="n">
-        <v>10210.53</v>
+        <v>6819.81</v>
       </c>
       <c r="O55" t="n">
-        <v>6807.02</v>
+        <v>4546.54</v>
       </c>
       <c r="P55" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="Q55" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R55" t="n">
-        <v>90.73999999999999</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="S55" t="n">
-        <v>187.53</v>
+        <v>128.95</v>
       </c>
       <c r="T55" t="n">
-        <v>26.76</v>
+        <v>45.93</v>
       </c>
       <c r="U55" t="n">
-        <v>112.52</v>
+        <v>77.37</v>
       </c>
       <c r="V55" t="n">
-        <v>75.01000000000001</v>
+        <v>51.58</v>
       </c>
       <c r="W55" t="n">
-        <v>24.54</v>
+        <v>22.94</v>
       </c>
       <c r="X55" t="n">
-        <v>12.61</v>
+        <v>16.09</v>
       </c>
       <c r="Y55" t="n">
-        <v>90.73999999999999</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.399</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-10-19 17:42:26</t>
+          <t>2026-10-16 16:11:57</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6881,7 +6631,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.443</t>
+          <t>Mouse session - Score: 0.322</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -6891,7 +6641,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MOUSE_20261019_002</t>
+          <t>MOUSE_20261016_002</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6904,12 +6654,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>17:42:26</t>
+          <t>16:11:57</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -6918,58 +6668,58 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>19184</v>
+        <v>25897</v>
       </c>
       <c r="L56" t="n">
-        <v>19184</v>
+        <v>25897</v>
       </c>
       <c r="M56" t="n">
-        <v>9797.370000000001</v>
+        <v>35071.67</v>
       </c>
       <c r="N56" t="n">
-        <v>5878.42</v>
+        <v>21043</v>
       </c>
       <c r="O56" t="n">
-        <v>3918.95</v>
+        <v>14028.67</v>
       </c>
       <c r="P56" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q56" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="R56" t="n">
-        <v>48.66</v>
+        <v>142.07</v>
       </c>
       <c r="S56" t="n">
-        <v>201.33</v>
+        <v>246.87</v>
       </c>
       <c r="T56" t="n">
-        <v>46.98</v>
+        <v>44.27</v>
       </c>
       <c r="U56" t="n">
-        <v>120.8</v>
+        <v>148.12</v>
       </c>
       <c r="V56" t="n">
-        <v>80.53</v>
+        <v>98.75</v>
       </c>
       <c r="W56" t="n">
-        <v>27.42</v>
+        <v>16.26</v>
       </c>
       <c r="X56" t="n">
-        <v>25.54</v>
+        <v>18.68</v>
       </c>
       <c r="Y56" t="n">
-        <v>48.66</v>
+        <v>142.07</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.443</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-10-19 10:47:02</t>
+          <t>2026-10-16 15:56:18</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6979,7 +6729,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.373</t>
+          <t>Mouse session - Score: 0.332</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -6989,7 +6739,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MOUSE_20261019_003</t>
+          <t>MOUSE_20261016_003</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7002,12 +6752,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>10:47:02</t>
+          <t>15:56:18</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7016,58 +6766,58 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>7629</v>
+        <v>10335</v>
       </c>
       <c r="L57" t="n">
-        <v>7629</v>
+        <v>10335</v>
       </c>
       <c r="M57" t="n">
-        <v>39237.03</v>
+        <v>9779.18</v>
       </c>
       <c r="N57" t="n">
-        <v>23542.22</v>
+        <v>5867.51</v>
       </c>
       <c r="O57" t="n">
-        <v>15694.81</v>
+        <v>3911.67</v>
       </c>
       <c r="P57" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="Q57" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="R57" t="n">
-        <v>34.33</v>
+        <v>69.27</v>
       </c>
       <c r="S57" t="n">
-        <v>1142.86</v>
+        <v>141.18</v>
       </c>
       <c r="T57" t="n">
-        <v>7.34</v>
+        <v>28.79</v>
       </c>
       <c r="U57" t="n">
-        <v>685.71</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="V57" t="n">
-        <v>457.14</v>
+        <v>56.47</v>
       </c>
       <c r="W57" t="n">
-        <v>13.21</v>
+        <v>23.59</v>
       </c>
       <c r="X57" t="n">
-        <v>27.52</v>
+        <v>15.94</v>
       </c>
       <c r="Y57" t="n">
-        <v>34.33</v>
+        <v>69.27</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.373</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-10-20 09:47:11</t>
+          <t>2026-10-19 15:48:20</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -7077,7 +6827,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.303</t>
+          <t>Mouse session - Score: 0.349</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7087,7 +6837,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MOUSE_20261020_000</t>
+          <t>MOUSE_20261019_000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -7100,12 +6850,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-19</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>09:47:11</t>
+          <t>15:48:20</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -7114,58 +6864,58 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>17261</v>
+        <v>16398</v>
       </c>
       <c r="L58" t="n">
-        <v>17261</v>
+        <v>16398</v>
       </c>
       <c r="M58" t="n">
-        <v>27085.22</v>
+        <v>18922.75</v>
       </c>
       <c r="N58" t="n">
-        <v>16251.13</v>
+        <v>11353.65</v>
       </c>
       <c r="O58" t="n">
-        <v>10834.09</v>
+        <v>7569.1</v>
       </c>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R58" t="n">
-        <v>64.79000000000001</v>
+        <v>93.81999999999999</v>
       </c>
       <c r="S58" t="n">
-        <v>418.07</v>
+        <v>201.69</v>
       </c>
       <c r="T58" t="n">
-        <v>17.58</v>
+        <v>11.09</v>
       </c>
       <c r="U58" t="n">
-        <v>250.84</v>
+        <v>121.01</v>
       </c>
       <c r="V58" t="n">
-        <v>167.23</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="W58" t="n">
-        <v>12.26</v>
+        <v>18.02</v>
       </c>
       <c r="X58" t="n">
-        <v>9.27</v>
+        <v>13.26</v>
       </c>
       <c r="Y58" t="n">
-        <v>64.79000000000001</v>
+        <v>93.81999999999999</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.303</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-10-20 12:48:11</t>
+          <t>2026-10-19 17:56:15</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -7175,7 +6925,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.265</t>
+          <t>Mouse session - Score: 0.321</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -7185,7 +6935,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MOUSE_20261020_001</t>
+          <t>MOUSE_20261019_001</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -7198,12 +6948,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-19</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>12:48:11</t>
+          <t>17:56:15</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -7212,58 +6962,58 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>29056</v>
+        <v>6070</v>
       </c>
       <c r="L59" t="n">
-        <v>29056</v>
+        <v>6070</v>
       </c>
       <c r="M59" t="n">
-        <v>5879.82</v>
+        <v>25125.11</v>
       </c>
       <c r="N59" t="n">
-        <v>3527.89</v>
+        <v>15075.06</v>
       </c>
       <c r="O59" t="n">
-        <v>2351.93</v>
+        <v>10050.04</v>
       </c>
       <c r="P59" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Q59" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R59" t="n">
-        <v>173.88</v>
+        <v>64.61</v>
       </c>
       <c r="S59" t="n">
-        <v>33.82</v>
+        <v>388.88</v>
       </c>
       <c r="T59" t="n">
-        <v>35.4</v>
+        <v>5.79</v>
       </c>
       <c r="U59" t="n">
-        <v>20.29</v>
+        <v>233.33</v>
       </c>
       <c r="V59" t="n">
-        <v>13.53</v>
+        <v>155.55</v>
       </c>
       <c r="W59" t="n">
-        <v>7.24</v>
+        <v>2.59</v>
       </c>
       <c r="X59" t="n">
-        <v>14.7</v>
+        <v>26.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>173.88</v>
+        <v>64.61</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.265</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-10-20 11:51:01</t>
+          <t>2026-10-19 10:17:20</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -7273,7 +7023,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.437</t>
+          <t>Mouse session - Score: 0.315</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -7283,7 +7033,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MOUSE_20261020_002</t>
+          <t>MOUSE_20261019_002</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7296,12 +7046,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-19</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>11:51:01</t>
+          <t>10:17:20</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -7310,58 +7060,58 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>22289</v>
+        <v>6656</v>
       </c>
       <c r="L60" t="n">
-        <v>22289</v>
+        <v>6656</v>
       </c>
       <c r="M60" t="n">
-        <v>33625.14</v>
+        <v>6690.97</v>
       </c>
       <c r="N60" t="n">
-        <v>20175.08</v>
+        <v>4014.58</v>
       </c>
       <c r="O60" t="n">
-        <v>13450.06</v>
+        <v>2676.39</v>
       </c>
       <c r="P60" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q60" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="R60" t="n">
-        <v>67.03</v>
+        <v>57.37</v>
       </c>
       <c r="S60" t="n">
-        <v>501.63</v>
+        <v>116.63</v>
       </c>
       <c r="T60" t="n">
-        <v>45.65</v>
+        <v>45.45</v>
       </c>
       <c r="U60" t="n">
-        <v>300.98</v>
+        <v>69.98</v>
       </c>
       <c r="V60" t="n">
-        <v>200.65</v>
+        <v>46.65</v>
       </c>
       <c r="W60" t="n">
-        <v>23.06</v>
+        <v>17.22</v>
       </c>
       <c r="X60" t="n">
-        <v>26.17</v>
+        <v>23.31</v>
       </c>
       <c r="Y60" t="n">
-        <v>67.03</v>
+        <v>57.37</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.437</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-10-20 13:48:16</t>
+          <t>2026-10-19 17:28:44</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7371,7 +7121,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.311</t>
+          <t>Mouse session - Score: 0.390</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -7381,7 +7131,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MOUSE_20261020_003</t>
+          <t>MOUSE_20261019_003</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7394,12 +7144,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-19</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>13:48:16</t>
+          <t>17:28:44</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -7408,58 +7158,58 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>21043</v>
+        <v>27521</v>
       </c>
       <c r="L61" t="n">
-        <v>21043</v>
+        <v>27521</v>
       </c>
       <c r="M61" t="n">
-        <v>24541.5</v>
+        <v>24800.08</v>
       </c>
       <c r="N61" t="n">
-        <v>14724.9</v>
+        <v>14880.05</v>
       </c>
       <c r="O61" t="n">
-        <v>9816.6</v>
+        <v>9920.030000000001</v>
       </c>
       <c r="P61" t="n">
         <v>28</v>
       </c>
       <c r="Q61" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>151.03</v>
+        <v>137.56</v>
       </c>
       <c r="S61" t="n">
-        <v>162.49</v>
+        <v>180.29</v>
       </c>
       <c r="T61" t="n">
-        <v>37.51</v>
+        <v>49.47</v>
       </c>
       <c r="U61" t="n">
-        <v>97.48999999999999</v>
+        <v>108.17</v>
       </c>
       <c r="V61" t="n">
-        <v>65</v>
+        <v>72.12</v>
       </c>
       <c r="W61" t="n">
-        <v>6.57</v>
+        <v>10.9</v>
       </c>
       <c r="X61" t="n">
-        <v>13.34</v>
+        <v>6.63</v>
       </c>
       <c r="Y61" t="n">
-        <v>151.03</v>
+        <v>137.56</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.311</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026-10-21 10:19:56</t>
+          <t>2026-10-20 17:59:36</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7469,7 +7219,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.426</t>
+          <t>Mouse session - Score: 0.307</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -7479,7 +7229,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MOUSE_20261021_000</t>
+          <t>MOUSE_20261020_000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7492,12 +7242,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2026-10-21</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>10:19:56</t>
+          <t>17:59:36</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -7506,58 +7256,58 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>14304</v>
+        <v>20956</v>
       </c>
       <c r="L62" t="n">
-        <v>14304</v>
+        <v>20956</v>
       </c>
       <c r="M62" t="n">
-        <v>39484.32</v>
+        <v>37363.34</v>
       </c>
       <c r="N62" t="n">
-        <v>23690.59</v>
+        <v>22418</v>
       </c>
       <c r="O62" t="n">
-        <v>15793.73</v>
+        <v>14945.34</v>
       </c>
       <c r="P62" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="Q62" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="R62" t="n">
-        <v>97.14</v>
+        <v>156.89</v>
       </c>
       <c r="S62" t="n">
-        <v>406.46</v>
+        <v>238.15</v>
       </c>
       <c r="T62" t="n">
-        <v>44.46</v>
+        <v>19.31</v>
       </c>
       <c r="U62" t="n">
-        <v>243.87</v>
+        <v>142.89</v>
       </c>
       <c r="V62" t="n">
-        <v>162.58</v>
+        <v>95.26000000000001</v>
       </c>
       <c r="W62" t="n">
-        <v>21.03</v>
+        <v>7.64</v>
       </c>
       <c r="X62" t="n">
-        <v>8.07</v>
+        <v>11.48</v>
       </c>
       <c r="Y62" t="n">
-        <v>97.14</v>
+        <v>156.89</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.426</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-10-21 10:16:54</t>
+          <t>2026-10-20 12:58:54</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7567,7 +7317,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.887</t>
+          <t>Mouse session - Score: 0.294</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7577,25 +7327,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MOUSE_20261021_001</t>
+          <t>MOUSE_20261020_001</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2026-10-21</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>10:16:54</t>
+          <t>12:58:54</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -7604,58 +7354,58 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>12592</v>
+        <v>11270</v>
       </c>
       <c r="L63" t="n">
-        <v>12592</v>
+        <v>11270</v>
       </c>
       <c r="M63" t="n">
-        <v>9586.799999999999</v>
+        <v>7800.11</v>
       </c>
       <c r="N63" t="n">
-        <v>5752.08</v>
+        <v>4680.06</v>
       </c>
       <c r="O63" t="n">
-        <v>3834.72</v>
+        <v>3120.04</v>
       </c>
       <c r="P63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q63" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="R63" t="n">
-        <v>91.23999999999999</v>
+        <v>139.3</v>
       </c>
       <c r="S63" t="n">
-        <v>105.07</v>
+        <v>56</v>
       </c>
       <c r="T63" t="n">
-        <v>11.37</v>
+        <v>8.67</v>
       </c>
       <c r="U63" t="n">
-        <v>63.04</v>
+        <v>33.6</v>
       </c>
       <c r="V63" t="n">
-        <v>42.03</v>
+        <v>22.4</v>
       </c>
       <c r="W63" t="n">
-        <v>26.82</v>
+        <v>10.86</v>
       </c>
       <c r="X63" t="n">
-        <v>23.26</v>
+        <v>13.8</v>
       </c>
       <c r="Y63" t="n">
-        <v>91.23999999999999</v>
+        <v>139.3</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.887</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-10-21 11:42:19</t>
+          <t>2026-10-20 14:41:33</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7665,7 +7415,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.859</t>
+          <t>Mouse session - Score: 0.371</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7675,25 +7425,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MOUSE_20261021_002</t>
+          <t>MOUSE_20261020_002</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2026-10-21</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>11:42:19</t>
+          <t>14:41:33</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -7702,58 +7452,58 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>9164</v>
+        <v>29165</v>
       </c>
       <c r="L64" t="n">
-        <v>9164</v>
+        <v>29165</v>
       </c>
       <c r="M64" t="n">
-        <v>35309.28</v>
+        <v>11427.12</v>
       </c>
       <c r="N64" t="n">
-        <v>21185.57</v>
+        <v>6856.27</v>
       </c>
       <c r="O64" t="n">
-        <v>14123.71</v>
+        <v>4570.85</v>
       </c>
       <c r="P64" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q64" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R64" t="n">
-        <v>62.47</v>
+        <v>55.85</v>
       </c>
       <c r="S64" t="n">
-        <v>565.24</v>
+        <v>204.62</v>
       </c>
       <c r="T64" t="n">
-        <v>40.98</v>
+        <v>9.42</v>
       </c>
       <c r="U64" t="n">
-        <v>339.14</v>
+        <v>122.77</v>
       </c>
       <c r="V64" t="n">
-        <v>226.1</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="W64" t="n">
-        <v>28.34</v>
+        <v>5.4</v>
       </c>
       <c r="X64" t="n">
-        <v>20.04</v>
+        <v>20.66</v>
       </c>
       <c r="Y64" t="n">
-        <v>62.47</v>
+        <v>55.85</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.859</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-10-21 10:22:59</t>
+          <t>2026-10-20 15:11:03</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -7763,7 +7513,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.253</t>
+          <t>Mouse session - Score: 0.338</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -7773,7 +7523,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MOUSE_20261021_003</t>
+          <t>MOUSE_20261020_003</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7786,12 +7536,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2026-10-21</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>10:22:59</t>
+          <t>15:11:03</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -7800,58 +7550,58 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>14923</v>
+        <v>28751</v>
       </c>
       <c r="L65" t="n">
-        <v>14923</v>
+        <v>28751</v>
       </c>
       <c r="M65" t="n">
-        <v>29968.21</v>
+        <v>25652.63</v>
       </c>
       <c r="N65" t="n">
-        <v>17980.93</v>
+        <v>15391.58</v>
       </c>
       <c r="O65" t="n">
-        <v>11987.28</v>
+        <v>10261.05</v>
       </c>
       <c r="P65" t="n">
         <v>11</v>
       </c>
       <c r="Q65" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="R65" t="n">
-        <v>84.58</v>
+        <v>98.88</v>
       </c>
       <c r="S65" t="n">
-        <v>354.3</v>
+        <v>259.44</v>
       </c>
       <c r="T65" t="n">
-        <v>8.109999999999999</v>
+        <v>13.34</v>
       </c>
       <c r="U65" t="n">
-        <v>212.58</v>
+        <v>155.67</v>
       </c>
       <c r="V65" t="n">
-        <v>141.72</v>
+        <v>103.78</v>
       </c>
       <c r="W65" t="n">
-        <v>25.49</v>
+        <v>8.59</v>
       </c>
       <c r="X65" t="n">
-        <v>29.22</v>
+        <v>21.83</v>
       </c>
       <c r="Y65" t="n">
-        <v>84.58</v>
+        <v>98.88</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.253</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-10-22 10:23:06</t>
+          <t>2026-10-21 13:46:38</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7861,7 +7611,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.344</t>
+          <t>Mouse session - Score: 0.376</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -7871,7 +7621,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MOUSE_20261022_000</t>
+          <t>MOUSE_20261021_000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7884,12 +7634,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>10:23:06</t>
+          <t>13:46:38</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -7898,58 +7648,58 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>6206</v>
+        <v>24328</v>
       </c>
       <c r="L66" t="n">
-        <v>6206</v>
+        <v>24328</v>
       </c>
       <c r="M66" t="n">
-        <v>12988.56</v>
+        <v>10646.82</v>
       </c>
       <c r="N66" t="n">
-        <v>7793.14</v>
+        <v>6388.09</v>
       </c>
       <c r="O66" t="n">
-        <v>5195.42</v>
+        <v>4258.73</v>
       </c>
       <c r="P66" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="Q66" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="R66" t="n">
-        <v>137.88</v>
+        <v>31.06</v>
       </c>
       <c r="S66" t="n">
-        <v>94.20999999999999</v>
+        <v>342.8</v>
       </c>
       <c r="T66" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="U66" t="n">
-        <v>56.52</v>
+        <v>205.68</v>
       </c>
       <c r="V66" t="n">
-        <v>37.68</v>
+        <v>137.12</v>
       </c>
       <c r="W66" t="n">
-        <v>14.43</v>
+        <v>27.84</v>
       </c>
       <c r="X66" t="n">
-        <v>12.56</v>
+        <v>5.64</v>
       </c>
       <c r="Y66" t="n">
-        <v>137.88</v>
+        <v>31.06</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.344</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-10-22 17:12:49</t>
+          <t>2026-10-21 10:31:48</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7959,7 +7709,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.368</t>
+          <t>Mouse session - Score: 0.250</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7969,7 +7719,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MOUSE_20261022_001</t>
+          <t>MOUSE_20261021_001</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7982,12 +7732,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>17:12:49</t>
+          <t>10:31:48</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -7996,58 +7746,58 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>10616</v>
+        <v>27350</v>
       </c>
       <c r="L67" t="n">
-        <v>10616</v>
+        <v>27350</v>
       </c>
       <c r="M67" t="n">
-        <v>13428.36</v>
+        <v>26815.9</v>
       </c>
       <c r="N67" t="n">
-        <v>8057.02</v>
+        <v>16089.54</v>
       </c>
       <c r="O67" t="n">
-        <v>5371.34</v>
+        <v>10726.36</v>
       </c>
       <c r="P67" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>122.35</v>
+        <v>109.01</v>
       </c>
       <c r="S67" t="n">
-        <v>109.75</v>
+        <v>245.98</v>
       </c>
       <c r="T67" t="n">
-        <v>48.02</v>
+        <v>49.84</v>
       </c>
       <c r="U67" t="n">
-        <v>65.84999999999999</v>
+        <v>147.59</v>
       </c>
       <c r="V67" t="n">
-        <v>43.9</v>
+        <v>98.39</v>
       </c>
       <c r="W67" t="n">
-        <v>11.25</v>
+        <v>22.51</v>
       </c>
       <c r="X67" t="n">
-        <v>20.63</v>
+        <v>15.19</v>
       </c>
       <c r="Y67" t="n">
-        <v>122.35</v>
+        <v>109.01</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.368</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026-10-22 17:06:57</t>
+          <t>2026-10-21 11:26:10</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -8057,7 +7807,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.284</t>
+          <t>Mouse session - Score: 0.421</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -8067,7 +7817,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MOUSE_20261022_002</t>
+          <t>MOUSE_20261021_002</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -8080,12 +7830,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>17:06:57</t>
+          <t>11:26:10</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -8094,58 +7844,58 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>23102</v>
+        <v>27388</v>
       </c>
       <c r="L68" t="n">
-        <v>23102</v>
+        <v>27388</v>
       </c>
       <c r="M68" t="n">
-        <v>17425.73</v>
+        <v>23075.45</v>
       </c>
       <c r="N68" t="n">
-        <v>10455.44</v>
+        <v>13845.27</v>
       </c>
       <c r="O68" t="n">
-        <v>6970.29</v>
+        <v>9230.18</v>
       </c>
       <c r="P68" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R68" t="n">
-        <v>53</v>
+        <v>37.17</v>
       </c>
       <c r="S68" t="n">
-        <v>328.78</v>
+        <v>620.8200000000001</v>
       </c>
       <c r="T68" t="n">
-        <v>18.61</v>
+        <v>45.35</v>
       </c>
       <c r="U68" t="n">
-        <v>197.27</v>
+        <v>372.49</v>
       </c>
       <c r="V68" t="n">
-        <v>131.51</v>
+        <v>248.33</v>
       </c>
       <c r="W68" t="n">
-        <v>8.470000000000001</v>
+        <v>14.51</v>
       </c>
       <c r="X68" t="n">
-        <v>27.26</v>
+        <v>3.04</v>
       </c>
       <c r="Y68" t="n">
-        <v>53</v>
+        <v>37.17</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.284</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2026-10-22 17:32:05</t>
+          <t>2026-10-21 13:04:03</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8155,7 +7905,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.338</t>
+          <t>Mouse session - Score: 0.334</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -8165,7 +7915,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MOUSE_20261022_003</t>
+          <t>MOUSE_20261021_003</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -8178,12 +7928,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>17:32:05</t>
+          <t>13:04:03</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -8192,58 +7942,58 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>18516</v>
+        <v>20252</v>
       </c>
       <c r="L69" t="n">
-        <v>18516</v>
+        <v>20252</v>
       </c>
       <c r="M69" t="n">
-        <v>38616.81</v>
+        <v>9435.809999999999</v>
       </c>
       <c r="N69" t="n">
-        <v>23170.09</v>
+        <v>5661.49</v>
       </c>
       <c r="O69" t="n">
-        <v>15446.73</v>
+        <v>3774.33</v>
       </c>
       <c r="P69" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R69" t="n">
-        <v>53.22</v>
+        <v>36.06</v>
       </c>
       <c r="S69" t="n">
-        <v>725.5700000000001</v>
+        <v>261.67</v>
       </c>
       <c r="T69" t="n">
-        <v>47.3</v>
+        <v>30.42</v>
       </c>
       <c r="U69" t="n">
-        <v>435.34</v>
+        <v>157</v>
       </c>
       <c r="V69" t="n">
-        <v>290.23</v>
+        <v>104.67</v>
       </c>
       <c r="W69" t="n">
-        <v>29.79</v>
+        <v>14.27</v>
       </c>
       <c r="X69" t="n">
-        <v>11.63</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y69" t="n">
-        <v>53.22</v>
+        <v>36.06</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.338</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2026-10-23 09:00:56</t>
+          <t>2026-10-22 12:50:30</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -8253,7 +8003,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.862</t>
+          <t>Mouse session - Score: 0.405</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -8263,25 +8013,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MOUSE_20261023_000</t>
+          <t>MOUSE_20261022_000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2026-10-23</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>09:00:56</t>
+          <t>12:50:30</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -8290,58 +8040,58 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>21574</v>
+        <v>18496</v>
       </c>
       <c r="L70" t="n">
-        <v>21574</v>
+        <v>18496</v>
       </c>
       <c r="M70" t="n">
-        <v>10398.26</v>
+        <v>14054.22</v>
       </c>
       <c r="N70" t="n">
-        <v>6238.96</v>
+        <v>8432.530000000001</v>
       </c>
       <c r="O70" t="n">
-        <v>4159.3</v>
+        <v>5621.69</v>
       </c>
       <c r="P70" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="Q70" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R70" t="n">
-        <v>106.09</v>
+        <v>137.67</v>
       </c>
       <c r="S70" t="n">
-        <v>98.02</v>
+        <v>102.09</v>
       </c>
       <c r="T70" t="n">
-        <v>33.81</v>
+        <v>47.13</v>
       </c>
       <c r="U70" t="n">
-        <v>58.81</v>
+        <v>61.25</v>
       </c>
       <c r="V70" t="n">
-        <v>39.21</v>
+        <v>40.83</v>
       </c>
       <c r="W70" t="n">
-        <v>18.8</v>
+        <v>22.58</v>
       </c>
       <c r="X70" t="n">
-        <v>26.46</v>
+        <v>18.62</v>
       </c>
       <c r="Y70" t="n">
-        <v>106.09</v>
+        <v>137.67</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.862</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2026-10-23 11:18:35</t>
+          <t>2026-10-22 15:02:25</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -8351,7 +8101,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.342</t>
+          <t>Mouse session - Score: 0.448</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -8361,7 +8111,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MOUSE_20261023_001</t>
+          <t>MOUSE_20261022_001</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -8374,12 +8124,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2026-10-23</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>11:18:35</t>
+          <t>15:02:25</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -8388,58 +8138,58 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>10253</v>
+        <v>8661</v>
       </c>
       <c r="L71" t="n">
-        <v>10253</v>
+        <v>8661</v>
       </c>
       <c r="M71" t="n">
-        <v>18927.73</v>
+        <v>19973.75</v>
       </c>
       <c r="N71" t="n">
-        <v>11356.64</v>
+        <v>11984.25</v>
       </c>
       <c r="O71" t="n">
-        <v>7571.09</v>
+        <v>7989.5</v>
       </c>
       <c r="P71" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="R71" t="n">
-        <v>121.9</v>
+        <v>94.23</v>
       </c>
       <c r="S71" t="n">
-        <v>155.27</v>
+        <v>211.98</v>
       </c>
       <c r="T71" t="n">
-        <v>11.34</v>
+        <v>48.78</v>
       </c>
       <c r="U71" t="n">
-        <v>93.16</v>
+        <v>127.19</v>
       </c>
       <c r="V71" t="n">
-        <v>62.11</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="W71" t="n">
-        <v>25.69</v>
+        <v>16.45</v>
       </c>
       <c r="X71" t="n">
-        <v>7.14</v>
+        <v>22.94</v>
       </c>
       <c r="Y71" t="n">
-        <v>121.9</v>
+        <v>94.23</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.342</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2026-10-23 12:22:19</t>
+          <t>2026-10-22 16:24:04</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -8449,7 +8199,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.318</t>
+          <t>Mouse session - Score: 0.310</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -8459,7 +8209,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MOUSE_20261023_002</t>
+          <t>MOUSE_20261022_002</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -8472,12 +8222,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2026-10-23</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>12:22:19</t>
+          <t>16:24:04</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -8486,58 +8236,58 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>28413</v>
+        <v>18472</v>
       </c>
       <c r="L72" t="n">
-        <v>28413</v>
+        <v>18472</v>
       </c>
       <c r="M72" t="n">
-        <v>26681.91</v>
+        <v>24145.1</v>
       </c>
       <c r="N72" t="n">
-        <v>16009.14</v>
+        <v>14487.06</v>
       </c>
       <c r="O72" t="n">
-        <v>10672.76</v>
+        <v>9658.040000000001</v>
       </c>
       <c r="P72" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q72" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="R72" t="n">
-        <v>87.70999999999999</v>
+        <v>113.85</v>
       </c>
       <c r="S72" t="n">
-        <v>304.21</v>
+        <v>212.08</v>
       </c>
       <c r="T72" t="n">
-        <v>33.57</v>
+        <v>5</v>
       </c>
       <c r="U72" t="n">
-        <v>182.53</v>
+        <v>127.25</v>
       </c>
       <c r="V72" t="n">
-        <v>121.69</v>
+        <v>84.83</v>
       </c>
       <c r="W72" t="n">
-        <v>7.42</v>
+        <v>12.73</v>
       </c>
       <c r="X72" t="n">
-        <v>12.97</v>
+        <v>4.29</v>
       </c>
       <c r="Y72" t="n">
-        <v>87.70999999999999</v>
+        <v>113.85</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.318</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-10-23 10:28:59</t>
+          <t>2026-10-22 17:20:35</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -8547,7 +8297,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.435</t>
+          <t>Mouse session - Score: 0.371</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -8557,7 +8307,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MOUSE_20261023_003</t>
+          <t>MOUSE_20261022_003</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -8570,12 +8320,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2026-10-23</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>10:28:59</t>
+          <t>17:20:35</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -8584,52 +8334,52 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>21004</v>
+        <v>27343</v>
       </c>
       <c r="L73" t="n">
-        <v>21004</v>
+        <v>27343</v>
       </c>
       <c r="M73" t="n">
-        <v>11150.97</v>
+        <v>9451.4</v>
       </c>
       <c r="N73" t="n">
-        <v>6690.58</v>
+        <v>5670.84</v>
       </c>
       <c r="O73" t="n">
-        <v>4460.39</v>
+        <v>3780.56</v>
       </c>
       <c r="P73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q73" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R73" t="n">
-        <v>33.55</v>
+        <v>97.66</v>
       </c>
       <c r="S73" t="n">
-        <v>332.38</v>
+        <v>96.78</v>
       </c>
       <c r="T73" t="n">
-        <v>17.1</v>
+        <v>30.45</v>
       </c>
       <c r="U73" t="n">
-        <v>199.43</v>
+        <v>58.07</v>
       </c>
       <c r="V73" t="n">
-        <v>132.95</v>
+        <v>38.71</v>
       </c>
       <c r="W73" t="n">
-        <v>20.69</v>
+        <v>4.13</v>
       </c>
       <c r="X73" t="n">
-        <v>17.73</v>
+        <v>17.04</v>
       </c>
       <c r="Y73" t="n">
-        <v>33.55</v>
+        <v>97.66</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.435</v>
+        <v>0.371</v>
       </c>
     </row>
   </sheetData>
@@ -8643,7 +8393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8706,20 +8456,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-10-01 10:22:00</t>
+          <t>2026-10-01 11:14:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-10-01 15:57:21</t>
+          <t>2026-10-01 16:30:21</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20121</v>
+        <v>18981</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>05:35:00</t>
+          <t>05:16:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -8746,20 +8496,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-10-02 15:55:00</t>
+          <t>2026-10-02 12:41:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-10-02 22:30:00</t>
+          <t>2026-10-02 16:08:50</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23700</v>
+        <v>12470</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>06:35:00</t>
+          <t>03:27:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -8776,7 +8526,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BROWSER_20261005_00</t>
+          <t>BROWSER_20261002_01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8786,25 +8536,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-10-05 14:29:00</t>
+          <t>2026-10-02 11:43:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-10-05 21:09:08</t>
+          <t>2026-10-02 14:45:49</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24008</v>
+        <v>10969</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>06:40:00</t>
+          <t>03:02:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-10-05</t>
+          <t>2026-10-02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -8816,7 +8566,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BROWSER_20261006_00</t>
+          <t>BROWSER_20261005_00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8826,25 +8576,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-10-06 08:52:00</t>
+          <t>2026-10-05 14:04:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-10-06 11:54:43</t>
+          <t>2026-10-05 17:30:41</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10963</v>
+        <v>12401</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>03:02:00</t>
+          <t>03:26:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-10-06</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -8856,7 +8606,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BROWSER_20261006_01</t>
+          <t>BROWSER_20261005_01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8866,25 +8616,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-10-06 14:25:00</t>
+          <t>2026-10-05 09:58:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-10-06 17:37:02</t>
+          <t>2026-10-05 13:18:28</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11522</v>
+        <v>12028</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>03:12:00</t>
+          <t>03:20:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-10-06</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -8896,7 +8646,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BROWSER_20261007_00</t>
+          <t>BROWSER_20261006_00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8906,25 +8656,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-10-07 08:30:00</t>
+          <t>2026-10-06 11:50:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-10-07 11:57:11</t>
+          <t>2026-10-06 17:48:19</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12431</v>
+        <v>21499</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>03:27:00</t>
+          <t>05:58:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -8936,7 +8686,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BROWSER_20261007_01</t>
+          <t>BROWSER_20261007_00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8946,20 +8696,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-10-07 12:54:00</t>
+          <t>2026-10-07 10:04:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-10-07 15:31:59</t>
+          <t>2026-10-07 13:04:52</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9479</v>
+        <v>10852</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02:37:00</t>
+          <t>03:00:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -8976,7 +8726,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BROWSER_20261008_00</t>
+          <t>BROWSER_20261007_01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -8986,25 +8736,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-10-08 09:09:00</t>
+          <t>2026-10-07 14:44:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-10-08 14:19:25</t>
+          <t>2026-10-07 17:50:07</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18625</v>
+        <v>11167</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>05:10:00</t>
+          <t>03:06:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-10-08</t>
+          <t>2026-10-07</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -9016,7 +8766,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BROWSER_20261009_00</t>
+          <t>BROWSER_20261008_00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -9026,25 +8776,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-10-09 10:58:00</t>
+          <t>2026-10-08 11:09:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-10-09 16:55:57</t>
+          <t>2026-10-08 14:13:26</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21477</v>
+        <v>11066</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>05:57:00</t>
+          <t>03:04:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -9056,7 +8806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20261012_00</t>
+          <t>BROWSER_20261008_01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -9066,25 +8816,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-10-12 12:39:00</t>
+          <t>2026-10-08 08:21:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-10-12 15:55:43</t>
+          <t>2026-10-08 11:30:41</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11803</v>
+        <v>11381</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>03:16:00</t>
+          <t>03:09:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-10-12</t>
+          <t>2026-10-08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -9096,7 +8846,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BROWSER_20261012_01</t>
+          <t>BROWSER_20261009_00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -9106,25 +8856,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-10-12 08:38:00</t>
+          <t>2026-10-09 09:49:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-10-12 11:24:33</t>
+          <t>2026-10-09 12:49:17</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9993</v>
+        <v>10817</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>02:46:00</t>
+          <t>03:00:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-10-12</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -9136,7 +8886,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BROWSER_20261013_00</t>
+          <t>BROWSER_20261009_01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -9146,16 +8896,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-10-13 11:39:00</t>
+          <t>2026-10-09 11:06:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-10-13 14:34:32</t>
+          <t>2026-10-09 14:01:02</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10532</v>
+        <v>10502</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -9164,7 +8914,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -9176,7 +8926,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BROWSER_20261013_01</t>
+          <t>BROWSER_20261012_00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -9186,25 +8936,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-10-13 08:18:00</t>
+          <t>2026-10-12 09:03:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-10-13 11:25:12</t>
+          <t>2026-10-12 15:32:54</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11232</v>
+        <v>23394</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>03:07:00</t>
+          <t>06:29:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -9216,7 +8966,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BROWSER_20261014_00</t>
+          <t>BROWSER_20261013_00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -9226,25 +8976,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-10-14 11:05:00</t>
+          <t>2026-10-13 15:13:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-10-14 14:31:12</t>
+          <t>2026-10-13 21:36:52</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12372</v>
+        <v>23032</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>03:26:00</t>
+          <t>06:23:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-10-14</t>
+          <t>2026-10-13</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -9256,7 +9006,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROWSER_20261014_01</t>
+          <t>BROWSER_20261014_00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -9266,20 +9016,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-10-14 14:33:00</t>
+          <t>2026-10-14 09:27:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-10-14 17:46:52</t>
+          <t>2026-10-14 12:46:27</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11632</v>
+        <v>11967</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>03:13:00</t>
+          <t>03:19:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -9296,7 +9046,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20261015_00</t>
+          <t>BROWSER_20261014_01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -9306,25 +9056,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-10-15 10:31:00</t>
+          <t>2026-10-14 09:01:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-10-15 15:38:34</t>
+          <t>2026-10-14 11:35:09</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18454</v>
+        <v>9249</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>05:07:00</t>
+          <t>02:34:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-10-15</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -9336,7 +9086,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20261016_00</t>
+          <t>BROWSER_20261015_00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -9346,25 +9096,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-10-16 09:05:00</t>
+          <t>2026-10-15 09:56:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-10-16 14:26:54</t>
+          <t>2026-10-15 13:04:44</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19314</v>
+        <v>11324</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>05:21:00</t>
+          <t>03:08:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -9376,7 +9126,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BROWSER_20261019_00</t>
+          <t>BROWSER_20261015_01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -9386,25 +9136,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-10-19 11:05:00</t>
+          <t>2026-10-15 11:48:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-10-19 14:13:37</t>
+          <t>2026-10-15 15:15:03</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>11317</v>
+        <v>12423</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>03:08:00</t>
+          <t>03:27:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -9416,7 +9166,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BROWSER_20261019_01</t>
+          <t>BROWSER_20261016_00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -9426,25 +9176,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-10-19 10:08:00</t>
+          <t>2026-10-16 13:39:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-10-19 12:58:04</t>
+          <t>2026-10-16 18:54:04</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10204</v>
+        <v>18904</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>02:50:00</t>
+          <t>05:15:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -9456,7 +9206,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BROWSER_20261020_00</t>
+          <t>BROWSER_20261019_00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -9466,25 +9216,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-10-20 14:49:00</t>
+          <t>2026-10-19 09:13:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-10-20 18:01:30</t>
+          <t>2026-10-19 14:38:53</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11550</v>
+        <v>19553</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>03:12:00</t>
+          <t>05:25:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-19</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -9496,7 +9246,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BROWSER_20261020_01</t>
+          <t>BROWSER_20261020_00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -9506,20 +9256,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-10-20 08:19:00</t>
+          <t>2026-10-20 08:03:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-10-20 11:07:50</t>
+          <t>2026-10-20 13:15:45</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10130</v>
+        <v>18765</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>02:48:00</t>
+          <t>05:12:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -9546,20 +9296,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-10-21 09:51:00</t>
+          <t>2026-10-21 08:05:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-10-21 13:02:54</t>
+          <t>2026-10-21 13:35:52</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11514</v>
+        <v>19852</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>03:11:00</t>
+          <t>05:30:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -9576,7 +9326,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BROWSER_20261021_01</t>
+          <t>BROWSER_20261022_00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -9586,25 +9336,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-10-21 14:14:00</t>
+          <t>2026-10-22 14:06:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-10-21 17:07:29</t>
+          <t>2026-10-22 16:44:53</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10409</v>
+        <v>9533</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>02:53:00</t>
+          <t>02:38:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-10-21</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -9616,7 +9366,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BROWSER_20261022_00</t>
+          <t>BROWSER_20261022_01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -9626,20 +9376,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2026-10-22 13:59:00</t>
+          <t>2026-10-22 09:39:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-10-22 16:47:14</t>
+          <t>2026-10-22 13:04:16</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10094</v>
+        <v>12316</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>02:48:00</t>
+          <t>03:25:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -9656,7 +9406,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BROWSER_20261022_01</t>
+          <t>BROWSER_20261023_00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -9666,25 +9416,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2026-10-22 11:26:00</t>
+          <t>2026-10-23 14:44:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-10-22 14:13:20</t>
+          <t>2026-10-23 18:04:25</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10040</v>
+        <v>12025</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>02:47:00</t>
+          <t>03:20:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-23</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -9696,7 +9446,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BROWSER_20261023_00</t>
+          <t>BROWSER_20261023_01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -9706,20 +9456,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2026-10-23 11:54:00</t>
+          <t>2026-10-23 15:53:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-10-23 15:05:46</t>
+          <t>2026-10-23 18:44:56</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>11506</v>
+        <v>10316</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>03:11:00</t>
+          <t>02:51:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -9736,7 +9486,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BROWSER_20261023_01</t>
+          <t>BROWSER_20261026_00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -9746,68 +9496,28 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2026-10-23 13:28:00</t>
+          <t>2026-10-26 08:05:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2026-10-23 16:30:20</t>
+          <t>2026-10-26 14:35:52</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10940</v>
+        <v>23452</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>03:02:00</t>
+          <t>06:30:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-10-23</t>
+          <t>2026-10-26</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>BROWSER_20261026_00</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2026-10-26 08:48:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2026-10-26 15:34:14</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>24374</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>06:46:00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2026-10-26</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
         <is>
           <t>Browser_Session</t>
         </is>
